--- a/raw_data/20200818_saline/20200818_Sensor1_Test_12.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_12.xlsx
@@ -1,523 +1,939 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB63070-816E-48FF-B732-E72D96FBC154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>10087.042150</v>
+        <v>10087.042149999999</v>
       </c>
       <c r="B2" s="1">
-        <v>2.801956</v>
+        <v>2.8019560000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>898.595000</v>
+        <v>898.59500000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>-201.596000</v>
+        <v>-201.596</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>10097.195294</v>
+        <v>10097.195293999999</v>
       </c>
       <c r="G2" s="1">
-        <v>2.804776</v>
+        <v>2.8047759999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>916.473000</v>
+        <v>916.47299999999996</v>
       </c>
       <c r="I2" s="1">
-        <v>-170.378000</v>
+        <v>-170.37799999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>10107.321579</v>
+        <v>10107.321578999999</v>
       </c>
       <c r="L2" s="1">
-        <v>2.807589</v>
+        <v>2.8075890000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>939.521000</v>
+        <v>939.52099999999996</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.582000</v>
+        <v>-120.58199999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>10117.529246</v>
@@ -526,103 +942,103 @@
         <v>2.810425</v>
       </c>
       <c r="R2" s="1">
-        <v>946.189000</v>
+        <v>946.18899999999996</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.910000</v>
+        <v>-103.91</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>10128.124783</v>
+        <v>10128.124782999999</v>
       </c>
       <c r="V2" s="1">
-        <v>2.813368</v>
+        <v>2.8133680000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>952.601000</v>
+        <v>952.601</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.699700</v>
+        <v>-88.699700000000007</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>10138.231399</v>
       </c>
       <c r="AA2" s="1">
-        <v>2.816175</v>
+        <v>2.8161749999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>959.520000</v>
+        <v>959.52</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.890800</v>
+        <v>-76.890799999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>10148.757860</v>
+        <v>10148.75786</v>
       </c>
       <c r="AF2" s="1">
         <v>2.819099</v>
       </c>
       <c r="AG2" s="1">
-        <v>964.416000</v>
+        <v>964.41600000000005</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.823500</v>
+        <v>-74.823499999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>10159.100935</v>
       </c>
       <c r="AK2" s="1">
-        <v>2.821972</v>
+        <v>2.8219720000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>971.339000</v>
+        <v>971.33900000000006</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.244300</v>
+        <v>-79.244299999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>10169.382537</v>
       </c>
       <c r="AP2" s="1">
-        <v>2.824828</v>
+        <v>2.8248280000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>979.356000</v>
+        <v>979.35599999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.837800</v>
+        <v>-90.837800000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>10180.751833</v>
       </c>
       <c r="AU2" s="1">
-        <v>2.827987</v>
+        <v>2.8279869999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>989.176000</v>
+        <v>989.17600000000004</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.461000</v>
+        <v>-108.461</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>10191.910312</v>
@@ -631,58 +1047,58 @@
         <v>2.831086</v>
       </c>
       <c r="BA2" s="1">
-        <v>997.332000</v>
+        <v>997.33199999999999</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.064000</v>
+        <v>-124.06399999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>10203.295996</v>
+        <v>10203.295996000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>2.834249</v>
+        <v>2.8342489999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1035.510000</v>
+        <v>1035.51</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.939000</v>
+        <v>-195.93899999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>10214.609742</v>
+        <v>10214.609742000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>2.837392</v>
+        <v>2.8373919999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1101.200000</v>
+        <v>1101.2</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.190000</v>
+        <v>-313.19</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>10225.285600</v>
+        <v>10225.285599999999</v>
       </c>
       <c r="BO2" s="1">
         <v>2.840357</v>
       </c>
       <c r="BP2" s="1">
-        <v>1208.280000</v>
+        <v>1208.28</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-499.052000</v>
+        <v>-499.05200000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>10236.070147</v>
@@ -691,60 +1107,60 @@
         <v>2.843353</v>
       </c>
       <c r="BU2" s="1">
-        <v>1329.280000</v>
+        <v>1329.28</v>
       </c>
       <c r="BV2" s="1">
-        <v>-704.153000</v>
+        <v>-704.15300000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>10246.730659</v>
+        <v>10246.730659000001</v>
       </c>
       <c r="BY2" s="1">
         <v>2.846314</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1465.820000</v>
+        <v>1465.82</v>
       </c>
       <c r="CA2" s="1">
-        <v>-922.685000</v>
+        <v>-922.68499999999995</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>10257.769588</v>
+        <v>10257.769587999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>2.849380</v>
+        <v>2.84938</v>
       </c>
       <c r="CE2" s="1">
-        <v>1826.970000</v>
+        <v>1826.97</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1442.870000</v>
+        <v>-1442.87</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>10087.441925</v>
+        <v>10087.441924999999</v>
       </c>
       <c r="B3" s="1">
-        <v>2.802067</v>
+        <v>2.8020670000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>898.501000</v>
+        <v>898.50099999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-201.781000</v>
+        <v>-201.78100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>10097.539976</v>
@@ -753,88 +1169,88 @@
         <v>2.804872</v>
       </c>
       <c r="H3" s="1">
-        <v>916.443000</v>
+        <v>916.44299999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-170.728000</v>
+        <v>-170.72800000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>10107.700026</v>
       </c>
       <c r="L3" s="1">
-        <v>2.807694</v>
+        <v>2.8076940000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>939.456000</v>
+        <v>939.45600000000002</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.608000</v>
+        <v>-120.608</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>10117.913646</v>
+        <v>10117.913646000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>2.810532</v>
+        <v>2.8105319999999998</v>
       </c>
       <c r="R3" s="1">
-        <v>946.194000</v>
+        <v>946.19399999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.927000</v>
+        <v>-103.92700000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>10128.543406</v>
+        <v>10128.543406000001</v>
       </c>
       <c r="V3" s="1">
-        <v>2.813484</v>
+        <v>2.8134839999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>952.551000</v>
+        <v>952.55100000000004</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.719100</v>
+        <v>-88.719099999999997</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>10138.643938</v>
+        <v>10138.643937999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>2.816290</v>
+        <v>2.81629</v>
       </c>
       <c r="AB3" s="1">
-        <v>959.590000</v>
+        <v>959.59</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.928200</v>
+        <v>-76.928200000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>10149.066403</v>
+        <v>10149.066403000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>2.819185</v>
+        <v>2.8191850000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>964.242000</v>
+        <v>964.24199999999996</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.692000</v>
+        <v>-74.691999999999993</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>10159.210093</v>
@@ -843,58 +1259,58 @@
         <v>2.822003</v>
       </c>
       <c r="AL3" s="1">
-        <v>971.336000</v>
+        <v>971.33600000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.284700</v>
+        <v>-79.284700000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>10169.768920</v>
+        <v>10169.76892</v>
       </c>
       <c r="AP3" s="1">
-        <v>2.824936</v>
+        <v>2.8249360000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>979.371000</v>
+        <v>979.37099999999998</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.836700</v>
+        <v>-90.836699999999993</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>10181.114408</v>
+        <v>10181.114407999999</v>
       </c>
       <c r="AU3" s="1">
         <v>2.828087</v>
       </c>
       <c r="AV3" s="1">
-        <v>989.169000</v>
+        <v>989.16899999999998</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.456000</v>
+        <v>-108.456</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>10192.315067</v>
       </c>
       <c r="AZ3" s="1">
-        <v>2.831199</v>
+        <v>2.8311989999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>997.350000</v>
+        <v>997.35</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.043000</v>
+        <v>-124.04300000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>10204.034049</v>
@@ -903,73 +1319,73 @@
         <v>2.834454</v>
       </c>
       <c r="BF3" s="1">
-        <v>1035.500000</v>
+        <v>1035.5</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.971000</v>
+        <v>-195.971</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>10215.023372</v>
       </c>
       <c r="BJ3" s="1">
-        <v>2.837506</v>
+        <v>2.8375059999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1101.200000</v>
+        <v>1101.2</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.197000</v>
+        <v>-313.197</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>10225.724590</v>
+        <v>10225.72459</v>
       </c>
       <c r="BO3" s="1">
-        <v>2.840479</v>
+        <v>2.8404790000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1208.280000</v>
+        <v>1208.28</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-499.056000</v>
+        <v>-499.05599999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>10236.504639</v>
+        <v>10236.504639000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>2.843474</v>
+        <v>2.8434740000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1329.190000</v>
+        <v>1329.19</v>
       </c>
       <c r="BV3" s="1">
-        <v>-704.028000</v>
+        <v>-704.02800000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>10247.195874</v>
+        <v>10247.195873999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>2.846443</v>
+        <v>2.8464429999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1465.860000</v>
+        <v>1465.86</v>
       </c>
       <c r="CA3" s="1">
-        <v>-922.580000</v>
+        <v>-922.58</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>10258.670323</v>
@@ -978,105 +1394,105 @@
         <v>2.849631</v>
       </c>
       <c r="CE3" s="1">
-        <v>1826.100000</v>
+        <v>1826.1</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1443.740000</v>
+        <v>-1443.74</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>10087.961268</v>
+        <v>10087.961267999999</v>
       </c>
       <c r="B4" s="1">
-        <v>2.802211</v>
+        <v>2.8022109999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>898.458000</v>
+        <v>898.45799999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>-201.636000</v>
+        <v>-201.636</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>10097.887707</v>
       </c>
       <c r="G4" s="1">
-        <v>2.804969</v>
+        <v>2.8049689999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>916.106000</v>
+        <v>916.10599999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-169.992000</v>
+        <v>-169.99199999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>10108.101291</v>
+        <v>10108.101291000001</v>
       </c>
       <c r="L4" s="1">
-        <v>2.807806</v>
+        <v>2.8078059999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>939.560000</v>
+        <v>939.56</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.369000</v>
+        <v>-120.369</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>10118.333010</v>
+        <v>10118.33301</v>
       </c>
       <c r="Q4" s="1">
         <v>2.810648</v>
       </c>
       <c r="R4" s="1">
-        <v>946.204000</v>
+        <v>946.20399999999995</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.964000</v>
+        <v>-103.964</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>10128.852415</v>
+        <v>10128.852414999999</v>
       </c>
       <c r="V4" s="1">
-        <v>2.813570</v>
+        <v>2.8135699999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>952.532000</v>
+        <v>952.53200000000004</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.693300</v>
+        <v>-88.693299999999994</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>10138.962369</v>
+        <v>10138.962369000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>2.816378</v>
+        <v>2.8163779999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>959.550000</v>
+        <v>959.55</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.921900</v>
+        <v>-76.921899999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>10149.418565</v>
@@ -1085,103 +1501,103 @@
         <v>2.819283</v>
       </c>
       <c r="AG4" s="1">
-        <v>964.178000</v>
+        <v>964.178</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.671200</v>
+        <v>-74.671199999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>10159.553782</v>
+        <v>10159.553782000001</v>
       </c>
       <c r="AK4" s="1">
         <v>2.822098</v>
       </c>
       <c r="AL4" s="1">
-        <v>971.322000</v>
+        <v>971.322</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.250900</v>
+        <v>-79.250900000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>10170.132456</v>
+        <v>10170.132455999999</v>
       </c>
       <c r="AP4" s="1">
         <v>2.825037</v>
       </c>
       <c r="AQ4" s="1">
-        <v>979.374000</v>
+        <v>979.37400000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.817300</v>
+        <v>-90.817300000000003</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>10181.846009</v>
+        <v>10181.846009000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>2.828291</v>
+        <v>2.8282910000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>989.170000</v>
+        <v>989.17</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.473000</v>
+        <v>-108.473</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>10193.030265</v>
+        <v>10193.030264999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>2.831397</v>
+        <v>2.8313969999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>997.355000</v>
+        <v>997.35500000000002</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.043000</v>
+        <v>-124.04300000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>10204.395594</v>
       </c>
       <c r="BE4" s="1">
-        <v>2.834554</v>
+        <v>2.8345539999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1035.500000</v>
+        <v>1035.5</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.931000</v>
+        <v>-195.93100000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>10215.396860</v>
+        <v>10215.396860000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>2.837610</v>
+        <v>2.8376100000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1101.180000</v>
+        <v>1101.18</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.201000</v>
+        <v>-313.20100000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>10226.141695</v>
@@ -1190,13 +1606,13 @@
         <v>2.840595</v>
       </c>
       <c r="BP4" s="1">
-        <v>1208.300000</v>
+        <v>1208.3</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-499.094000</v>
+        <v>-499.09399999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>10237.225295</v>
@@ -1205,482 +1621,482 @@
         <v>2.843674</v>
       </c>
       <c r="BU4" s="1">
-        <v>1329.140000</v>
+        <v>1329.14</v>
       </c>
       <c r="BV4" s="1">
-        <v>-703.991000</v>
+        <v>-703.99099999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>10247.951282</v>
       </c>
       <c r="BY4" s="1">
-        <v>2.846653</v>
+        <v>2.8466529999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1465.760000</v>
+        <v>1465.76</v>
       </c>
       <c r="CA4" s="1">
-        <v>-922.605000</v>
+        <v>-922.60500000000002</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>10258.898979</v>
       </c>
       <c r="CD4" s="1">
-        <v>2.849694</v>
+        <v>2.8496939999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1825.610000</v>
+        <v>1825.61</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1443.620000</v>
+        <v>-1443.62</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>10088.127429</v>
       </c>
       <c r="B5" s="1">
-        <v>2.802258</v>
+        <v>2.8022580000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>898.512000</v>
+        <v>898.51199999999994</v>
       </c>
       <c r="D5" s="1">
-        <v>-201.809000</v>
+        <v>-201.809</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>10098.304807</v>
       </c>
       <c r="G5" s="1">
-        <v>2.805085</v>
+        <v>2.8050850000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>916.488000</v>
+        <v>916.48800000000006</v>
       </c>
       <c r="I5" s="1">
-        <v>-170.374000</v>
+        <v>-170.374</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>10108.423690</v>
+        <v>10108.42369</v>
       </c>
       <c r="L5" s="1">
-        <v>2.807895</v>
+        <v>2.8078949999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>939.634000</v>
+        <v>939.63400000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.388000</v>
+        <v>-120.38800000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>10118.631356</v>
       </c>
       <c r="Q5" s="1">
-        <v>2.810731</v>
+        <v>2.8107310000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>946.187000</v>
+        <v>946.18700000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.974000</v>
+        <v>-103.974</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>10129.190686</v>
       </c>
       <c r="V5" s="1">
-        <v>2.813664</v>
+        <v>2.8136640000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>952.614000</v>
+        <v>952.61400000000003</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.680400</v>
+        <v>-88.680400000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>10139.315026</v>
       </c>
       <c r="AA5" s="1">
-        <v>2.816476</v>
+        <v>2.8164760000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>959.586000</v>
+        <v>959.58600000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.908300</v>
+        <v>-76.908299999999997</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>10149.763427</v>
       </c>
       <c r="AF5" s="1">
-        <v>2.819379</v>
+        <v>2.8193790000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>964.234000</v>
+        <v>964.23400000000004</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.729600</v>
+        <v>-74.729600000000005</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>10160.202053</v>
+        <v>10160.202053000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>2.822278</v>
+        <v>2.8222779999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>971.337000</v>
+        <v>971.33699999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.256200</v>
+        <v>-79.256200000000007</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>10170.859623</v>
       </c>
       <c r="AP5" s="1">
-        <v>2.825239</v>
+        <v>2.8252389999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>979.367000</v>
+        <v>979.36699999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.815300</v>
+        <v>-90.815299999999993</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>10182.235335</v>
+        <v>10182.235334999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>2.828399</v>
+        <v>2.8283990000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>989.159000</v>
+        <v>989.15899999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.441000</v>
+        <v>-108.441</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>10193.390857</v>
       </c>
       <c r="AZ5" s="1">
-        <v>2.831497</v>
+        <v>2.8314970000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>997.341000</v>
+        <v>997.34100000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.043000</v>
+        <v>-124.04300000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>10204.756682</v>
+        <v>10204.756681999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>2.834655</v>
+        <v>2.8346550000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1035.500000</v>
+        <v>1035.5</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.950000</v>
+        <v>-195.95</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>10216.071452</v>
       </c>
       <c r="BJ5" s="1">
-        <v>2.837798</v>
+        <v>2.8377979999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1101.190000</v>
+        <v>1101.19</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.196000</v>
+        <v>-313.19600000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>10226.846013</v>
       </c>
       <c r="BO5" s="1">
-        <v>2.840791</v>
+        <v>2.8407909999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1208.270000</v>
+        <v>1208.27</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-499.100000</v>
+        <v>-499.1</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>10237.343872</v>
+        <v>10237.343871999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>2.843707</v>
+        <v>2.8437070000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1329.140000</v>
+        <v>1329.14</v>
       </c>
       <c r="BV5" s="1">
-        <v>-703.947000</v>
+        <v>-703.947</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>10248.070357</v>
+        <v>10248.070357000001</v>
       </c>
       <c r="BY5" s="1">
         <v>2.846686</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1465.820000</v>
+        <v>1465.82</v>
       </c>
       <c r="CA5" s="1">
-        <v>-922.612000</v>
+        <v>-922.61199999999997</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>10259.420531</v>
       </c>
       <c r="CD5" s="1">
-        <v>2.849839</v>
+        <v>2.8498389999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>1826.920000</v>
+        <v>1826.92</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1443.200000</v>
+        <v>-1443.2</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>10088.643237</v>
       </c>
       <c r="B6" s="1">
-        <v>2.802401</v>
+        <v>2.8024010000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>898.560000</v>
+        <v>898.56</v>
       </c>
       <c r="D6" s="1">
-        <v>-201.770000</v>
+        <v>-201.77</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>10098.584789</v>
       </c>
       <c r="G6" s="1">
-        <v>2.805162</v>
+        <v>2.8051620000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>916.155000</v>
+        <v>916.15499999999997</v>
       </c>
       <c r="I6" s="1">
-        <v>-170.326000</v>
+        <v>-170.32599999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>10108.763977</v>
+        <v>10108.763977000001</v>
       </c>
       <c r="L6" s="1">
-        <v>2.807990</v>
+        <v>2.8079900000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>939.446000</v>
+        <v>939.44600000000003</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.385000</v>
+        <v>-120.38500000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>10118.978059</v>
+        <v>10118.978058999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>2.810827</v>
+        <v>2.8108270000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>946.139000</v>
+        <v>946.13900000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.945000</v>
+        <v>-103.94499999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>10129.535903</v>
       </c>
       <c r="V6" s="1">
-        <v>2.813760</v>
+        <v>2.8137599999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>952.632000</v>
+        <v>952.63199999999995</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.636500</v>
+        <v>-88.636499999999998</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>10139.660736</v>
       </c>
       <c r="AA6" s="1">
-        <v>2.816572</v>
+        <v>2.8165719999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>959.536000</v>
+        <v>959.53599999999994</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.899400</v>
+        <v>-76.8994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>10150.453681</v>
+        <v>10150.453681000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>2.819570</v>
+        <v>2.8195700000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>964.201000</v>
+        <v>964.20100000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.670400</v>
+        <v>-74.670400000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>10160.598854</v>
       </c>
       <c r="AK6" s="1">
-        <v>2.822389</v>
+        <v>2.8223889999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>971.340000</v>
+        <v>971.34</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.253900</v>
+        <v>-79.253900000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>10171.236054</v>
+        <v>10171.236054000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>2.825343</v>
+        <v>2.8253430000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>979.372000</v>
+        <v>979.37199999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.817200</v>
+        <v>-90.8172</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>10182.599895</v>
+        <v>10182.599894999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>2.828500</v>
+        <v>2.8285</v>
       </c>
       <c r="AV6" s="1">
-        <v>989.171000</v>
+        <v>989.17100000000005</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.435000</v>
+        <v>-108.435</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>10193.749501</v>
       </c>
       <c r="AZ6" s="1">
-        <v>2.831597</v>
+        <v>2.8315969999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>997.345000</v>
+        <v>997.34500000000003</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.049000</v>
+        <v>-124.04900000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>10205.422809</v>
       </c>
       <c r="BE6" s="1">
-        <v>2.834840</v>
+        <v>2.8348399999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1035.510000</v>
+        <v>1035.51</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.941000</v>
+        <v>-195.941</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>10216.180043</v>
@@ -1689,285 +2105,285 @@
         <v>2.837828</v>
       </c>
       <c r="BK6" s="1">
-        <v>1101.190000</v>
+        <v>1101.19</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.166000</v>
+        <v>-313.166</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>10226.960589</v>
       </c>
       <c r="BO6" s="1">
-        <v>2.840822</v>
+        <v>2.8408220000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1208.290000</v>
+        <v>1208.29</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-499.122000</v>
+        <v>-499.12200000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>10237.783823</v>
       </c>
       <c r="BT6" s="1">
-        <v>2.843829</v>
+        <v>2.8438289999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1329.140000</v>
+        <v>1329.14</v>
       </c>
       <c r="BV6" s="1">
-        <v>-703.826000</v>
+        <v>-703.82600000000002</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>10248.509312</v>
       </c>
       <c r="BY6" s="1">
-        <v>2.846808</v>
+        <v>2.8468079999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1465.780000</v>
+        <v>1465.78</v>
       </c>
       <c r="CA6" s="1">
-        <v>-922.595000</v>
+        <v>-922.59500000000003</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>10259.938097</v>
       </c>
       <c r="CD6" s="1">
-        <v>2.849983</v>
+        <v>2.8499829999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1826.500000</v>
+        <v>1826.5</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1444.000000</v>
+        <v>-1444</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>10088.829731</v>
       </c>
       <c r="B7" s="1">
-        <v>2.802453</v>
+        <v>2.8024529999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>898.572000</v>
+        <v>898.572</v>
       </c>
       <c r="D7" s="1">
-        <v>-201.675000</v>
+        <v>-201.67500000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>10098.928311</v>
       </c>
       <c r="G7" s="1">
-        <v>2.805258</v>
+        <v>2.8052579999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>916.735000</v>
+        <v>916.73500000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-170.528000</v>
+        <v>-170.52799999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>10109.116610</v>
+        <v>10109.116609999999</v>
       </c>
       <c r="L7" s="1">
-        <v>2.808088</v>
+        <v>2.8080880000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>939.371000</v>
+        <v>939.37099999999998</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.410000</v>
+        <v>-120.41</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>10119.328763</v>
       </c>
       <c r="Q7" s="1">
-        <v>2.810925</v>
+        <v>2.8109250000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>946.138000</v>
+        <v>946.13800000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.935000</v>
+        <v>-103.935</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>10130.226830</v>
+        <v>10130.22683</v>
       </c>
       <c r="V7" s="1">
         <v>2.813952</v>
       </c>
       <c r="W7" s="1">
-        <v>952.594000</v>
+        <v>952.59400000000005</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.674000</v>
+        <v>-88.674000000000007</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>10140.360591</v>
+        <v>10140.360591000001</v>
       </c>
       <c r="AA7" s="1">
         <v>2.816767</v>
       </c>
       <c r="AB7" s="1">
-        <v>959.684000</v>
+        <v>959.68399999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.979800</v>
+        <v>-76.979799999999997</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>10150.793441</v>
       </c>
       <c r="AF7" s="1">
-        <v>2.819665</v>
+        <v>2.8196650000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>964.211000</v>
+        <v>964.21100000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.674700</v>
+        <v>-74.674700000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>10160.946052</v>
+        <v>10160.946051999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>2.822485</v>
+        <v>2.8224849999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>971.340000</v>
+        <v>971.34</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.250700</v>
+        <v>-79.250699999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>10171.596149</v>
+        <v>10171.596149000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>2.825443</v>
+        <v>2.8254429999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>979.398000</v>
+        <v>979.39800000000002</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.828600</v>
+        <v>-90.828599999999994</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>10183.266551</v>
+        <v>10183.266551000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>2.828685</v>
+        <v>2.8286850000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>989.169000</v>
+        <v>989.16899999999998</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.465000</v>
+        <v>-108.465</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>10194.452336</v>
       </c>
       <c r="AZ7" s="1">
-        <v>2.831792</v>
+        <v>2.8317920000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>997.360000</v>
+        <v>997.36</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.038000</v>
+        <v>-124.038</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>10205.871226</v>
+        <v>10205.871225999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>2.834964</v>
+        <v>2.8349639999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1035.490000</v>
+        <v>1035.49</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.936000</v>
+        <v>-195.93600000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>10216.559484</v>
+        <v>10216.559483999999</v>
       </c>
       <c r="BJ7" s="1">
         <v>2.837933</v>
       </c>
       <c r="BK7" s="1">
-        <v>1101.190000</v>
+        <v>1101.19</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.201000</v>
+        <v>-313.20100000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>10227.382684</v>
       </c>
       <c r="BO7" s="1">
-        <v>2.840940</v>
+        <v>2.8409399999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1208.280000</v>
+        <v>1208.28</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-499.088000</v>
+        <v>-499.08800000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>10238.199966</v>
@@ -1976,28 +2392,28 @@
         <v>2.843944</v>
       </c>
       <c r="BU7" s="1">
-        <v>1329.190000</v>
+        <v>1329.19</v>
       </c>
       <c r="BV7" s="1">
-        <v>-703.753000</v>
+        <v>-703.75300000000004</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>10248.934885</v>
+        <v>10248.934885000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>2.846926</v>
+        <v>2.8469259999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1465.830000</v>
+        <v>1465.83</v>
       </c>
       <c r="CA7" s="1">
-        <v>-922.611000</v>
+        <v>-922.61099999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>10260.491168</v>
@@ -2006,45 +2422,45 @@
         <v>2.850136</v>
       </c>
       <c r="CE7" s="1">
-        <v>1825.600000</v>
+        <v>1825.6</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1443.740000</v>
+        <v>-1443.74</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>10089.170979</v>
       </c>
       <c r="B8" s="1">
-        <v>2.802547</v>
+        <v>2.8025470000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>898.470000</v>
+        <v>898.47</v>
       </c>
       <c r="D8" s="1">
-        <v>-201.947000</v>
+        <v>-201.947</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>10099.273989</v>
+        <v>10099.273988999999</v>
       </c>
       <c r="G8" s="1">
-        <v>2.805354</v>
+        <v>2.8053539999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>916.742000</v>
+        <v>916.74199999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-170.638000</v>
+        <v>-170.63800000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>10109.810007</v>
@@ -2053,28 +2469,28 @@
         <v>2.808281</v>
       </c>
       <c r="M8" s="1">
-        <v>939.460000</v>
+        <v>939.46</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.433000</v>
+        <v>-120.43300000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>10120.028585</v>
       </c>
       <c r="Q8" s="1">
-        <v>2.811119</v>
+        <v>2.8111190000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>946.195000</v>
+        <v>946.19500000000005</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.922000</v>
+        <v>-103.922</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>10130.568076</v>
@@ -2083,103 +2499,103 @@
         <v>2.814047</v>
       </c>
       <c r="W8" s="1">
-        <v>952.623000</v>
+        <v>952.62300000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.642000</v>
+        <v>-88.641999999999996</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>10140.706799</v>
       </c>
       <c r="AA8" s="1">
-        <v>2.816863</v>
+        <v>2.8168630000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>959.560000</v>
+        <v>959.56</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.905900</v>
+        <v>-76.905900000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>10151.144608</v>
+        <v>10151.144608000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>2.819762</v>
+        <v>2.8197619999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>964.187000</v>
+        <v>964.18700000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.669500</v>
+        <v>-74.669499999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>10161.602259</v>
+        <v>10161.602258999999</v>
       </c>
       <c r="AK8" s="1">
         <v>2.822667</v>
       </c>
       <c r="AL8" s="1">
-        <v>971.326000</v>
+        <v>971.32600000000002</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.270700</v>
+        <v>-79.270700000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>10172.249877</v>
       </c>
       <c r="AP8" s="1">
-        <v>2.825625</v>
+        <v>2.8256250000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>979.378000</v>
+        <v>979.37800000000004</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.822800</v>
+        <v>-90.822800000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>10183.725855</v>
+        <v>10183.725855000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>2.828813</v>
+        <v>2.8288129999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>989.156000</v>
+        <v>989.15599999999995</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.459000</v>
+        <v>-108.459</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>10194.845623</v>
+        <v>10194.845622999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>2.831902</v>
+        <v>2.8319019999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>997.336000</v>
+        <v>997.33600000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.060000</v>
+        <v>-124.06</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>10206.230792</v>
@@ -2188,180 +2604,180 @@
         <v>2.835064</v>
       </c>
       <c r="BF8" s="1">
-        <v>1035.490000</v>
+        <v>1035.49</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.932000</v>
+        <v>-195.93199999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>10216.929995</v>
       </c>
       <c r="BJ8" s="1">
-        <v>2.838036</v>
+        <v>2.8380359999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1101.190000</v>
+        <v>1101.19</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.211000</v>
+        <v>-313.21100000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>10227.781963</v>
+        <v>10227.781962999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>2.841051</v>
+        <v>2.8410510000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1208.240000</v>
+        <v>1208.24</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-499.097000</v>
+        <v>-499.09699999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>10238.612605</v>
       </c>
       <c r="BT8" s="1">
-        <v>2.844059</v>
+        <v>2.8440590000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1329.280000</v>
+        <v>1329.28</v>
       </c>
       <c r="BV8" s="1">
-        <v>-703.721000</v>
+        <v>-703.721</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>10249.411540</v>
+        <v>10249.411539999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>2.847059</v>
+        <v>2.8470589999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1465.770000</v>
+        <v>1465.77</v>
       </c>
       <c r="CA8" s="1">
-        <v>-922.560000</v>
+        <v>-922.56</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>10261.019391</v>
       </c>
       <c r="CD8" s="1">
-        <v>2.850283</v>
+        <v>2.8502830000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1826.630000</v>
+        <v>1826.63</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1443.470000</v>
+        <v>-1443.47</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>10089.850535</v>
       </c>
       <c r="B9" s="1">
-        <v>2.802736</v>
+        <v>2.8027359999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>898.561000</v>
+        <v>898.56100000000004</v>
       </c>
       <c r="D9" s="1">
-        <v>-201.727000</v>
+        <v>-201.727</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>10099.961940</v>
+        <v>10099.961939999999</v>
       </c>
       <c r="G9" s="1">
         <v>2.805545</v>
       </c>
       <c r="H9" s="1">
-        <v>916.462000</v>
+        <v>916.46199999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-170.697000</v>
+        <v>-170.697</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>10110.158697</v>
+        <v>10110.158697000001</v>
       </c>
       <c r="L9" s="1">
-        <v>2.808377</v>
+        <v>2.8083770000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>939.549000</v>
+        <v>939.54899999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.630000</v>
+        <v>-120.63</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>10120.374330</v>
+        <v>10120.374330000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>2.811215</v>
+        <v>2.8112149999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>946.206000</v>
+        <v>946.20600000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.943000</v>
+        <v>-103.943</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>10130.914794</v>
       </c>
       <c r="V9" s="1">
-        <v>2.814143</v>
+        <v>2.8141430000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>952.625000</v>
+        <v>952.625</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.677600</v>
+        <v>-88.677599999999998</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>10141.054494</v>
       </c>
       <c r="AA9" s="1">
-        <v>2.816960</v>
+        <v>2.8169599999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>959.662000</v>
+        <v>959.66200000000003</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.976100</v>
+        <v>-76.976100000000002</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>10151.798864</v>
@@ -2370,133 +2786,133 @@
         <v>2.819944</v>
       </c>
       <c r="AG9" s="1">
-        <v>964.213000</v>
+        <v>964.21299999999997</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.703600</v>
+        <v>-74.703599999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>10161.991122</v>
+        <v>10161.991121999999</v>
       </c>
       <c r="AK9" s="1">
         <v>2.822775</v>
       </c>
       <c r="AL9" s="1">
-        <v>971.334000</v>
+        <v>971.33399999999995</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.284600</v>
+        <v>-79.284599999999998</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>10172.676965</v>
+        <v>10172.676965000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>2.825744</v>
+        <v>2.8257439999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>979.379000</v>
+        <v>979.37900000000002</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.828100</v>
+        <v>-90.828100000000006</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>10184.093361</v>
+        <v>10184.093360999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>2.828915</v>
+        <v>2.8289149999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>989.164000</v>
+        <v>989.16399999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.482000</v>
+        <v>-108.482</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>10195.242918</v>
       </c>
       <c r="AZ9" s="1">
-        <v>2.832012</v>
+        <v>2.8320120000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>997.352000</v>
+        <v>997.35199999999998</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.057000</v>
+        <v>-124.057</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>10206.592903</v>
+        <v>10206.592903000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>2.835165</v>
+        <v>2.8351649999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1035.490000</v>
+        <v>1035.49</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.936000</v>
+        <v>-195.93600000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>10217.347626</v>
+        <v>10217.347626000001</v>
       </c>
       <c r="BJ9" s="1">
         <v>2.838152</v>
       </c>
       <c r="BK9" s="1">
-        <v>1101.180000</v>
+        <v>1101.18</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.207000</v>
+        <v>-313.20699999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>10228.206044</v>
       </c>
       <c r="BO9" s="1">
-        <v>2.841168</v>
+        <v>2.8411680000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1208.270000</v>
+        <v>1208.27</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-499.135000</v>
+        <v>-499.13499999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>10239.027262</v>
       </c>
       <c r="BT9" s="1">
-        <v>2.844174</v>
+        <v>2.8441740000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1329.290000</v>
+        <v>1329.29</v>
       </c>
       <c r="BV9" s="1">
-        <v>-703.626000</v>
+        <v>-703.62599999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>10249.774078</v>
@@ -2505,31 +2921,31 @@
         <v>2.847159</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1465.710000</v>
+        <v>1465.71</v>
       </c>
       <c r="CA9" s="1">
-        <v>-922.666000</v>
+        <v>-922.66600000000005</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>10261.539216</v>
+        <v>10261.539215999999</v>
       </c>
       <c r="CD9" s="1">
         <v>2.850428</v>
       </c>
       <c r="CE9" s="1">
-        <v>1825.580000</v>
+        <v>1825.58</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1442.360000</v>
+        <v>-1442.36</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>10090.195228</v>
       </c>
@@ -2537,43 +2953,43 @@
         <v>2.802832</v>
       </c>
       <c r="C10" s="1">
-        <v>898.538000</v>
+        <v>898.53800000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-201.766000</v>
+        <v>-201.76599999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>10100.304713</v>
       </c>
       <c r="G10" s="1">
-        <v>2.805640</v>
+        <v>2.8056399999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>916.156000</v>
+        <v>916.15599999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-170.467000</v>
+        <v>-170.46700000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>10110.501463</v>
+        <v>10110.501463000001</v>
       </c>
       <c r="L10" s="1">
-        <v>2.808473</v>
+        <v>2.8084730000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>939.557000</v>
+        <v>939.55700000000002</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.373000</v>
+        <v>-120.373</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>10120.723977</v>
@@ -2582,405 +2998,405 @@
         <v>2.811312</v>
       </c>
       <c r="R10" s="1">
-        <v>946.197000</v>
+        <v>946.197</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.962000</v>
+        <v>-103.962</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>10131.578955</v>
+        <v>10131.578955000001</v>
       </c>
       <c r="V10" s="1">
         <v>2.814327</v>
       </c>
       <c r="W10" s="1">
-        <v>952.588000</v>
+        <v>952.58799999999997</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.656500</v>
+        <v>-88.656499999999994</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>10141.709250</v>
+        <v>10141.70925</v>
       </c>
       <c r="AA10" s="1">
-        <v>2.817141</v>
+        <v>2.8171409999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>959.564000</v>
+        <v>959.56399999999996</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.922800</v>
+        <v>-76.922799999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>10152.173313</v>
+        <v>10152.173312999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>2.820048</v>
+        <v>2.8200479999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>964.199000</v>
+        <v>964.19899999999996</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.655700</v>
+        <v>-74.655699999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>10162.342786</v>
+        <v>10162.342785999999</v>
       </c>
       <c r="AK10" s="1">
         <v>2.822873</v>
       </c>
       <c r="AL10" s="1">
-        <v>971.325000</v>
+        <v>971.32500000000005</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.267000</v>
+        <v>-79.266999999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>10173.060340</v>
+        <v>10173.06034</v>
       </c>
       <c r="AP10" s="1">
-        <v>2.825850</v>
+        <v>2.82585</v>
       </c>
       <c r="AQ10" s="1">
-        <v>979.396000</v>
+        <v>979.39599999999996</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.828400</v>
+        <v>-90.828400000000002</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>10184.456421</v>
+        <v>10184.456421000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>2.829016</v>
+        <v>2.8290160000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>989.167000</v>
+        <v>989.16700000000003</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.469000</v>
+        <v>-108.46899999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>10195.602022</v>
+        <v>10195.602021999999</v>
       </c>
       <c r="AZ10" s="1">
         <v>2.832112</v>
       </c>
       <c r="BA10" s="1">
-        <v>997.346000</v>
+        <v>997.346</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.054000</v>
+        <v>-124.054</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>10207.003560</v>
+        <v>10207.003559999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>2.835279</v>
+        <v>2.8352789999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1035.470000</v>
+        <v>1035.47</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.909000</v>
+        <v>-195.90899999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>10217.684905</v>
       </c>
       <c r="BJ10" s="1">
-        <v>2.838246</v>
+        <v>2.8382459999999998</v>
       </c>
       <c r="BK10" s="1">
-        <v>1101.180000</v>
+        <v>1101.18</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.210000</v>
+        <v>-313.20999999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>10228.601887</v>
+        <v>10228.601887000001</v>
       </c>
       <c r="BO10" s="1">
         <v>2.841278</v>
       </c>
       <c r="BP10" s="1">
-        <v>1208.300000</v>
+        <v>1208.3</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-499.085000</v>
+        <v>-499.08499999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>10239.442412</v>
       </c>
       <c r="BT10" s="1">
-        <v>2.844290</v>
+        <v>2.84429</v>
       </c>
       <c r="BU10" s="1">
-        <v>1329.410000</v>
+        <v>1329.41</v>
       </c>
       <c r="BV10" s="1">
-        <v>-703.563000</v>
+        <v>-703.56299999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>10250.223454</v>
+        <v>10250.223454000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>2.847284</v>
+        <v>2.8472840000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1465.880000</v>
+        <v>1465.88</v>
       </c>
       <c r="CA10" s="1">
-        <v>-922.721000</v>
+        <v>-922.721</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>10262.077342</v>
       </c>
       <c r="CD10" s="1">
-        <v>2.850577</v>
+        <v>2.8505769999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1826.140000</v>
+        <v>1826.14</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1443.850000</v>
+        <v>-1443.85</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>10090.531505</v>
+        <v>10090.531505000001</v>
       </c>
       <c r="B11" s="1">
-        <v>2.802925</v>
+        <v>2.8029250000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>898.757000</v>
+        <v>898.75699999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>-201.742000</v>
+        <v>-201.74199999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>10100.653860</v>
+        <v>10100.65386</v>
       </c>
       <c r="G11" s="1">
-        <v>2.805737</v>
+        <v>2.8057370000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>916.710000</v>
+        <v>916.71</v>
       </c>
       <c r="I11" s="1">
-        <v>-170.609000</v>
+        <v>-170.60900000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>10111.149207</v>
       </c>
       <c r="L11" s="1">
-        <v>2.808653</v>
+        <v>2.8086530000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>939.611000</v>
+        <v>939.61099999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.329000</v>
+        <v>-120.32899999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>10121.371752</v>
+        <v>10121.371751999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>2.811492</v>
+        <v>2.8114919999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>946.161000</v>
+        <v>946.16099999999994</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.950000</v>
+        <v>-103.95</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>10131.944970</v>
+        <v>10131.94497</v>
       </c>
       <c r="V11" s="1">
-        <v>2.814429</v>
+        <v>2.8144290000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>952.575000</v>
+        <v>952.57500000000005</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.710200</v>
+        <v>-88.7102</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>10142.114213</v>
+        <v>10142.114213000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>2.817254</v>
+        <v>2.8172540000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>959.669000</v>
+        <v>959.66899999999998</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.921300</v>
+        <v>-76.921300000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>10152.516048</v>
       </c>
       <c r="AF11" s="1">
-        <v>2.820143</v>
+        <v>2.8201429999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>964.196000</v>
+        <v>964.19600000000003</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.675900</v>
+        <v>-74.675899999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>10162.686017</v>
       </c>
       <c r="AK11" s="1">
-        <v>2.822968</v>
+        <v>2.8229679999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>971.323000</v>
+        <v>971.32299999999998</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.269400</v>
+        <v>-79.269400000000005</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>10173.419939</v>
+        <v>10173.419938999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>2.825950</v>
+        <v>2.8259500000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>979.373000</v>
+        <v>979.37300000000005</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.843000</v>
+        <v>-90.843000000000004</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>10184.876534</v>
+        <v>10184.876534000001</v>
       </c>
       <c r="AU11" s="1">
         <v>2.829132</v>
       </c>
       <c r="AV11" s="1">
-        <v>989.181000</v>
+        <v>989.18100000000004</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.470000</v>
+        <v>-108.47</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>10196.317287</v>
       </c>
       <c r="AZ11" s="1">
-        <v>2.832310</v>
+        <v>2.8323100000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>997.341000</v>
+        <v>997.34100000000001</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.073000</v>
+        <v>-124.07299999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>10207.316039</v>
+        <v>10207.316038999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>2.835366</v>
+        <v>2.8353660000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1035.500000</v>
+        <v>1035.5</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.935000</v>
+        <v>-195.935</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>10218.068312</v>
+        <v>10218.068311999999</v>
       </c>
       <c r="BJ11" s="1">
         <v>2.838352</v>
       </c>
       <c r="BK11" s="1">
-        <v>1101.210000</v>
+        <v>1101.21</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.209000</v>
+        <v>-313.209</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>10229.024479</v>
@@ -2989,13 +3405,13 @@
         <v>2.841396</v>
       </c>
       <c r="BP11" s="1">
-        <v>1208.290000</v>
+        <v>1208.29</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-499.127000</v>
+        <v>-499.12700000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>10239.880379</v>
@@ -3004,28 +3420,28 @@
         <v>2.844411</v>
       </c>
       <c r="BU11" s="1">
-        <v>1329.550000</v>
+        <v>1329.55</v>
       </c>
       <c r="BV11" s="1">
-        <v>-703.670000</v>
+        <v>-703.67</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>10250.642078</v>
+        <v>10250.642078000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>2.847401</v>
+        <v>2.8474010000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1465.860000</v>
+        <v>1465.86</v>
       </c>
       <c r="CA11" s="1">
-        <v>-922.804000</v>
+        <v>-922.80399999999997</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>10262.615501</v>
@@ -3034,30 +3450,30 @@
         <v>2.850727</v>
       </c>
       <c r="CE11" s="1">
-        <v>1827.010000</v>
+        <v>1827.01</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1442.520000</v>
+        <v>-1442.52</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>10091.181760</v>
+        <v>10091.181759999999</v>
       </c>
       <c r="B12" s="1">
-        <v>2.803106</v>
+        <v>2.8031060000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>898.521000</v>
+        <v>898.52099999999996</v>
       </c>
       <c r="D12" s="1">
-        <v>-201.642000</v>
+        <v>-201.642</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>10101.301667</v>
@@ -3066,43 +3482,43 @@
         <v>2.805917</v>
       </c>
       <c r="H12" s="1">
-        <v>916.451000</v>
+        <v>916.45100000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>-170.463000</v>
+        <v>-170.46299999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>10111.535590</v>
+        <v>10111.53559</v>
       </c>
       <c r="L12" s="1">
-        <v>2.808760</v>
+        <v>2.8087599999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>939.599000</v>
+        <v>939.59900000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.349000</v>
+        <v>-120.349</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>10121.768551</v>
+        <v>10121.768550999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>2.811602</v>
+        <v>2.8116020000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>946.147000</v>
+        <v>946.14700000000005</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.912000</v>
+        <v>-103.91200000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>10132.287242</v>
@@ -3111,43 +3527,43 @@
         <v>2.814524</v>
       </c>
       <c r="W12" s="1">
-        <v>952.619000</v>
+        <v>952.61900000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.673600</v>
+        <v>-88.673599999999993</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>10142.449740</v>
+        <v>10142.44974</v>
       </c>
       <c r="AA12" s="1">
-        <v>2.817347</v>
+        <v>2.8173469999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>959.624000</v>
+        <v>959.62400000000002</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.996000</v>
+        <v>-76.995999999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>10152.858286</v>
+        <v>10152.858286000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>2.820238</v>
+        <v>2.8202379999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>964.207000</v>
+        <v>964.20699999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.690500</v>
+        <v>-74.6905</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>10163.098689</v>
@@ -3156,43 +3572,43 @@
         <v>2.823083</v>
       </c>
       <c r="AL12" s="1">
-        <v>971.324000</v>
+        <v>971.32399999999996</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.269600</v>
+        <v>-79.269599999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>10173.832115</v>
+        <v>10173.832114999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>2.826064</v>
+        <v>2.8260640000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>979.396000</v>
+        <v>979.39599999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.839500</v>
+        <v>-90.839500000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>10185.184052</v>
+        <v>10185.184052000001</v>
       </c>
       <c r="AU12" s="1">
         <v>2.829218</v>
       </c>
       <c r="AV12" s="1">
-        <v>989.163000</v>
+        <v>989.16300000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.453000</v>
+        <v>-108.453</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>10196.677877</v>
@@ -3201,195 +3617,195 @@
         <v>2.832411</v>
       </c>
       <c r="BA12" s="1">
-        <v>997.338000</v>
+        <v>997.33799999999997</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.045000</v>
+        <v>-124.045</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>10207.677655</v>
       </c>
       <c r="BE12" s="1">
-        <v>2.835466</v>
+        <v>2.8354659999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1035.490000</v>
+        <v>1035.49</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.955000</v>
+        <v>-195.95500000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>10218.460153</v>
       </c>
       <c r="BJ12" s="1">
-        <v>2.838461</v>
+        <v>2.8384610000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1101.200000</v>
+        <v>1101.2</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.173000</v>
+        <v>-313.173</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>10229.425742</v>
+        <v>10229.425741999999</v>
       </c>
       <c r="BO12" s="1">
         <v>2.841507</v>
       </c>
       <c r="BP12" s="1">
-        <v>1208.270000</v>
+        <v>1208.27</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-499.079000</v>
+        <v>-499.07900000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>10240.309947</v>
       </c>
       <c r="BT12" s="1">
-        <v>2.844531</v>
+        <v>2.8445309999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1329.600000</v>
+        <v>1329.6</v>
       </c>
       <c r="BV12" s="1">
-        <v>-703.578000</v>
+        <v>-703.57799999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>10251.064173</v>
+        <v>10251.064173000001</v>
       </c>
       <c r="BY12" s="1">
         <v>2.847518</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1465.880000</v>
+        <v>1465.88</v>
       </c>
       <c r="CA12" s="1">
-        <v>-922.673000</v>
+        <v>-922.673</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>10263.157133</v>
+        <v>10263.157133000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>2.850877</v>
+        <v>2.8508770000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1825.170000</v>
+        <v>1825.17</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1443.260000</v>
+        <v>-1443.26</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>10091.561201</v>
       </c>
       <c r="B13" s="1">
-        <v>2.803211</v>
+        <v>2.8032110000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>898.576000</v>
+        <v>898.57600000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>-201.783000</v>
+        <v>-201.78299999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>10101.684568</v>
+        <v>10101.684568000001</v>
       </c>
       <c r="G13" s="1">
-        <v>2.806023</v>
+        <v>2.8060230000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>916.521000</v>
+        <v>916.52099999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-170.289000</v>
+        <v>-170.28899999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>10111.882800</v>
+        <v>10111.882799999999</v>
       </c>
       <c r="L13" s="1">
         <v>2.808856</v>
       </c>
       <c r="M13" s="1">
-        <v>939.472000</v>
+        <v>939.47199999999998</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.547000</v>
+        <v>-120.547</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>10122.115926</v>
       </c>
       <c r="Q13" s="1">
-        <v>2.811699</v>
+        <v>2.8116989999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>946.172000</v>
+        <v>946.17200000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.901000</v>
+        <v>-103.901</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>10132.633945</v>
       </c>
       <c r="V13" s="1">
-        <v>2.814621</v>
+        <v>2.8146209999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>952.550000</v>
+        <v>952.55</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.698000</v>
+        <v>-88.697999999999993</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>10143.040508</v>
       </c>
       <c r="AA13" s="1">
-        <v>2.817511</v>
+        <v>2.8175110000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>959.582000</v>
+        <v>959.58199999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.940500</v>
+        <v>-76.9405</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>10153.273448</v>
@@ -3398,210 +3814,210 @@
         <v>2.820354</v>
       </c>
       <c r="AG13" s="1">
-        <v>964.188000</v>
+        <v>964.18799999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.641500</v>
+        <v>-74.641499999999994</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>10163.386400</v>
+        <v>10163.386399999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>2.823163</v>
+        <v>2.8231630000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>971.324000</v>
+        <v>971.32399999999996</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.261300</v>
+        <v>-79.261300000000006</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>10174.139636</v>
       </c>
       <c r="AP13" s="1">
-        <v>2.826150</v>
+        <v>2.8261500000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>979.370000</v>
+        <v>979.37</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.853500</v>
+        <v>-90.853499999999997</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>10185.549603</v>
+        <v>10185.549602999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>2.829319</v>
+        <v>2.8293189999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>989.172000</v>
+        <v>989.17200000000003</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.453000</v>
+        <v>-108.453</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>10197.034964</v>
       </c>
       <c r="AZ13" s="1">
-        <v>2.832510</v>
+        <v>2.8325100000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>997.348000</v>
+        <v>997.34799999999996</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.054000</v>
+        <v>-124.054</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>10208.038711</v>
+        <v>10208.038710999999</v>
       </c>
       <c r="BE13" s="1">
         <v>2.835566</v>
       </c>
       <c r="BF13" s="1">
-        <v>1035.490000</v>
+        <v>1035.49</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.957000</v>
+        <v>-195.95699999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>10219.208119</v>
+        <v>10219.208119000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>2.838669</v>
+        <v>2.8386689999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1101.170000</v>
+        <v>1101.17</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.193000</v>
+        <v>-313.19299999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>10229.844330</v>
+        <v>10229.84433</v>
       </c>
       <c r="BO13" s="1">
-        <v>2.841623</v>
+        <v>2.8416229999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1208.270000</v>
+        <v>1208.27</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-499.132000</v>
+        <v>-499.13200000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>10240.720139</v>
+        <v>10240.720138999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>2.844644</v>
+        <v>2.8446440000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1329.610000</v>
+        <v>1329.61</v>
       </c>
       <c r="BV13" s="1">
-        <v>-703.751000</v>
+        <v>-703.75099999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>10251.491229</v>
+        <v>10251.491228999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>2.847636</v>
+        <v>2.8476360000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1465.640000</v>
+        <v>1465.64</v>
       </c>
       <c r="CA13" s="1">
-        <v>-922.729000</v>
+        <v>-922.72900000000004</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>10263.695292</v>
       </c>
       <c r="CD13" s="1">
-        <v>2.851026</v>
+        <v>2.8510260000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1826.690000</v>
+        <v>1826.69</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1443.650000</v>
+        <v>-1443.65</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>10091.906912</v>
       </c>
       <c r="B14" s="1">
-        <v>2.803307</v>
+        <v>2.8033070000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>898.801000</v>
+        <v>898.80100000000004</v>
       </c>
       <c r="D14" s="1">
-        <v>-201.723000</v>
+        <v>-201.72300000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>10102.029761</v>
       </c>
       <c r="G14" s="1">
-        <v>2.806119</v>
+        <v>2.8061189999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>916.681000</v>
+        <v>916.68100000000004</v>
       </c>
       <c r="I14" s="1">
-        <v>-170.474000</v>
+        <v>-170.47399999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>10112.226549</v>
+        <v>10112.226549000001</v>
       </c>
       <c r="L14" s="1">
-        <v>2.808952</v>
+        <v>2.8089520000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>939.545000</v>
+        <v>939.54499999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.556000</v>
+        <v>-120.556</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>10122.460471</v>
@@ -3610,13 +4026,13 @@
         <v>2.811795</v>
       </c>
       <c r="R14" s="1">
-        <v>946.185000</v>
+        <v>946.18499999999995</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.950000</v>
+        <v>-103.95</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>10133.051577</v>
@@ -3625,632 +4041,632 @@
         <v>2.814737</v>
       </c>
       <c r="W14" s="1">
-        <v>952.589000</v>
+        <v>952.58900000000006</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.661400</v>
+        <v>-88.6614</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>10143.148635</v>
       </c>
       <c r="AA14" s="1">
-        <v>2.817541</v>
+        <v>2.8175409999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>959.616000</v>
+        <v>959.61599999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.903500</v>
+        <v>-76.903499999999994</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>10153.555167</v>
       </c>
       <c r="AF14" s="1">
-        <v>2.820432</v>
+        <v>2.8204319999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>964.204000</v>
+        <v>964.20399999999995</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.647900</v>
+        <v>-74.647900000000007</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>10163.726129</v>
+        <v>10163.726129000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>2.823257</v>
+        <v>2.8232569999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>971.325000</v>
+        <v>971.32500000000005</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.263500</v>
+        <v>-79.263499999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>10174.500723</v>
+        <v>10174.500722999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>2.826250</v>
+        <v>2.8262499999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>979.365000</v>
+        <v>979.36500000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.816100</v>
+        <v>-90.816100000000006</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>10185.913171</v>
       </c>
       <c r="AU14" s="1">
-        <v>2.829420</v>
+        <v>2.8294199999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>989.184000</v>
+        <v>989.18399999999997</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.461000</v>
+        <v>-108.461</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>10197.759125</v>
       </c>
       <c r="AZ14" s="1">
-        <v>2.832711</v>
+        <v>2.8327110000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>997.365000</v>
+        <v>997.36500000000001</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.052000</v>
+        <v>-124.05200000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>10208.758280</v>
+        <v>10208.75828</v>
       </c>
       <c r="BE14" s="1">
         <v>2.835766</v>
       </c>
       <c r="BF14" s="1">
-        <v>1035.480000</v>
+        <v>1035.48</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.944000</v>
+        <v>-195.94399999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>10219.610871</v>
+        <v>10219.610871000001</v>
       </c>
       <c r="BJ14" s="1">
         <v>2.838781</v>
       </c>
       <c r="BK14" s="1">
-        <v>1101.200000</v>
+        <v>1101.2</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.191000</v>
+        <v>-313.19099999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>10230.242616</v>
       </c>
       <c r="BO14" s="1">
-        <v>2.841734</v>
+        <v>2.8417340000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1208.290000</v>
+        <v>1208.29</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-499.083000</v>
+        <v>-499.08300000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>10241.142201</v>
+        <v>10241.142201000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>2.844762</v>
+        <v>2.8447619999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>1329.690000</v>
+        <v>1329.69</v>
       </c>
       <c r="BV14" s="1">
-        <v>-703.741000</v>
+        <v>-703.74099999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>10252.204973</v>
       </c>
       <c r="BY14" s="1">
-        <v>2.847835</v>
+        <v>2.8478349999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1465.700000</v>
+        <v>1465.7</v>
       </c>
       <c r="CA14" s="1">
-        <v>-922.701000</v>
+        <v>-922.70100000000002</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>10264.543482</v>
+        <v>10264.543481999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>2.851262</v>
+        <v>2.8512620000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>1825.510000</v>
+        <v>1825.51</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1443.480000</v>
+        <v>-1443.48</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>10092.248655</v>
+        <v>10092.248654999999</v>
       </c>
       <c r="B15" s="1">
-        <v>2.803402</v>
+        <v>2.8034020000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>898.473000</v>
+        <v>898.47299999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-201.752000</v>
+        <v>-201.75200000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>10102.374481</v>
+        <v>10102.374481000001</v>
       </c>
       <c r="G15" s="1">
-        <v>2.806215</v>
+        <v>2.8062149999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>916.667000</v>
+        <v>916.66700000000003</v>
       </c>
       <c r="I15" s="1">
-        <v>-169.978000</v>
+        <v>-169.97800000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>10112.641701</v>
       </c>
       <c r="L15" s="1">
-        <v>2.809067</v>
+        <v>2.8090670000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>939.557000</v>
+        <v>939.55700000000002</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.444000</v>
+        <v>-120.444</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>10122.874635</v>
       </c>
       <c r="Q15" s="1">
-        <v>2.811910</v>
+        <v>2.8119100000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>946.193000</v>
+        <v>946.19299999999998</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.960000</v>
+        <v>-103.96</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>10133.331680</v>
+        <v>10133.331679999999</v>
       </c>
       <c r="V15" s="1">
-        <v>2.814814</v>
+        <v>2.8148140000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>952.660000</v>
+        <v>952.66</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.728600</v>
+        <v>-88.7286</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>10143.493819</v>
+        <v>10143.493818999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>2.817637</v>
+        <v>2.8176369999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>959.532000</v>
+        <v>959.53200000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.934300</v>
+        <v>-76.934299999999993</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>10153.898397</v>
+        <v>10153.898397000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>2.820527</v>
+        <v>2.8205269999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>964.221000</v>
+        <v>964.221</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.643300</v>
+        <v>-74.643299999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>10164.085727</v>
       </c>
       <c r="AK15" s="1">
-        <v>2.823357</v>
+        <v>2.8233570000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>971.346000</v>
+        <v>971.346</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.256100</v>
+        <v>-79.256100000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>10174.858865</v>
       </c>
       <c r="AP15" s="1">
-        <v>2.826350</v>
+        <v>2.8263500000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>979.386000</v>
+        <v>979.38599999999997</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.827500</v>
+        <v>-90.827500000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>10186.643778</v>
       </c>
       <c r="AU15" s="1">
-        <v>2.829623</v>
+        <v>2.8296230000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>989.176000</v>
+        <v>989.17600000000004</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.462000</v>
+        <v>-108.462</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>10198.138067</v>
       </c>
       <c r="AZ15" s="1">
-        <v>2.832816</v>
+        <v>2.8328159999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>997.363000</v>
+        <v>997.36300000000006</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.049000</v>
+        <v>-124.04900000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>10209.148260</v>
+        <v>10209.14826</v>
       </c>
       <c r="BE15" s="1">
-        <v>2.835875</v>
+        <v>2.8358750000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1035.520000</v>
+        <v>1035.52</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.941000</v>
+        <v>-195.941</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>10219.984854</v>
       </c>
       <c r="BJ15" s="1">
-        <v>2.838885</v>
+        <v>2.8388849999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1101.200000</v>
+        <v>1101.2</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.214000</v>
+        <v>-313.214</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>10230.665209</v>
+        <v>10230.665209000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>2.841851</v>
+        <v>2.8418510000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1208.290000</v>
+        <v>1208.29</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-499.119000</v>
+        <v>-499.11900000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>10241.879753</v>
+        <v>10241.879752999999</v>
       </c>
       <c r="BT15" s="1">
         <v>2.844967</v>
       </c>
       <c r="BU15" s="1">
-        <v>1329.670000</v>
+        <v>1329.67</v>
       </c>
       <c r="BV15" s="1">
-        <v>-703.898000</v>
+        <v>-703.89800000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>10252.351787</v>
       </c>
       <c r="BY15" s="1">
-        <v>2.847875</v>
+        <v>2.8478750000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1465.900000</v>
+        <v>1465.9</v>
       </c>
       <c r="CA15" s="1">
-        <v>-922.667000</v>
+        <v>-922.66700000000003</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>10264.778059</v>
       </c>
       <c r="CD15" s="1">
-        <v>2.851327</v>
+        <v>2.8513269999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1825.140000</v>
+        <v>1825.14</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1443.320000</v>
+        <v>-1443.32</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>10092.670752</v>
       </c>
       <c r="B16" s="1">
-        <v>2.803520</v>
+        <v>2.8035199999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>898.542000</v>
+        <v>898.54200000000003</v>
       </c>
       <c r="D16" s="1">
-        <v>-201.767000</v>
+        <v>-201.767</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>10102.783681</v>
+        <v>10102.783681000001</v>
       </c>
       <c r="G16" s="1">
-        <v>2.806329</v>
+        <v>2.8063289999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>916.232000</v>
+        <v>916.23199999999997</v>
       </c>
       <c r="I16" s="1">
-        <v>-170.295000</v>
+        <v>-170.29499999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>10112.940259</v>
+        <v>10112.940259000001</v>
       </c>
       <c r="L16" s="1">
-        <v>2.809150</v>
+        <v>2.8091499999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>939.539000</v>
+        <v>939.53899999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.234000</v>
+        <v>-120.23399999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>10123.173717</v>
       </c>
       <c r="Q16" s="1">
-        <v>2.811993</v>
+        <v>2.8119930000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>946.178000</v>
+        <v>946.178</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.950000</v>
+        <v>-103.95</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>10133.672536</v>
       </c>
       <c r="V16" s="1">
-        <v>2.814909</v>
+        <v>2.8149090000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>952.524000</v>
+        <v>952.524</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.701200</v>
+        <v>-88.7012</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>10143.843531</v>
       </c>
       <c r="AA16" s="1">
-        <v>2.817734</v>
+        <v>2.8177340000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>959.527000</v>
+        <v>959.52700000000004</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.913100</v>
+        <v>-76.9131</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>10154.242125</v>
+        <v>10154.242125000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>2.820623</v>
+        <v>2.8206229999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>964.143000</v>
+        <v>964.14300000000003</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.557400</v>
+        <v>-74.557400000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>10164.784618</v>
       </c>
       <c r="AK16" s="1">
-        <v>2.823551</v>
+        <v>2.8235510000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>971.334000</v>
+        <v>971.33399999999995</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.252700</v>
+        <v>-79.252700000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>10175.581008</v>
+        <v>10175.581007999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>2.826550</v>
+        <v>2.8265500000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>979.365000</v>
+        <v>979.36500000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.838900</v>
+        <v>-90.838899999999995</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>10187.033633</v>
+        <v>10187.033632999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>2.829732</v>
+        <v>2.8297319999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>989.145000</v>
+        <v>989.14499999999998</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.445000</v>
+        <v>-108.44499999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>10198.515028</v>
       </c>
       <c r="AZ16" s="1">
-        <v>2.832921</v>
+        <v>2.8329209999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>997.362000</v>
+        <v>997.36199999999997</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.059000</v>
+        <v>-124.059</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>10209.508357</v>
+        <v>10209.508357000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>2.835975</v>
+        <v>2.8359749999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1035.500000</v>
+        <v>1035.5</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.955000</v>
+        <v>-195.95500000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>10220.662885</v>
@@ -4259,28 +4675,28 @@
         <v>2.839073</v>
       </c>
       <c r="BK16" s="1">
-        <v>1101.180000</v>
+        <v>1101.18</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.226000</v>
+        <v>-313.226</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>10231.487579</v>
+        <v>10231.487579000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>2.842080</v>
+        <v>2.8420800000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1208.240000</v>
+        <v>1208.24</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-499.121000</v>
+        <v>-499.12099999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>10242.027064</v>
@@ -4289,165 +4705,165 @@
         <v>2.845008</v>
       </c>
       <c r="BU16" s="1">
-        <v>1329.740000</v>
+        <v>1329.74</v>
       </c>
       <c r="BV16" s="1">
-        <v>-703.985000</v>
+        <v>-703.98500000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>10252.773882</v>
       </c>
       <c r="BY16" s="1">
-        <v>2.847993</v>
+        <v>2.8479930000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1465.750000</v>
+        <v>1465.75</v>
       </c>
       <c r="CA16" s="1">
-        <v>-922.615000</v>
+        <v>-922.61500000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>10265.297867</v>
+        <v>10265.297866999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>2.851472</v>
+        <v>2.8514719999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1826.700000</v>
+        <v>1826.7</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1443.790000</v>
+        <v>-1443.79</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>10092.945535</v>
+        <v>10092.945535000001</v>
       </c>
       <c r="B17" s="1">
-        <v>2.803596</v>
+        <v>2.8035960000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>898.623000</v>
+        <v>898.62300000000005</v>
       </c>
       <c r="D17" s="1">
-        <v>-201.745000</v>
+        <v>-201.745</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>10103.069904</v>
       </c>
       <c r="G17" s="1">
-        <v>2.806408</v>
+        <v>2.8064079999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>916.496000</v>
+        <v>916.49599999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-170.639000</v>
+        <v>-170.63900000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>10113.286467</v>
       </c>
       <c r="L17" s="1">
-        <v>2.809246</v>
+        <v>2.8092459999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>939.629000</v>
+        <v>939.62900000000002</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.477000</v>
+        <v>-120.477</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>10123.523894</v>
       </c>
       <c r="Q17" s="1">
-        <v>2.812090</v>
+        <v>2.81209</v>
       </c>
       <c r="R17" s="1">
-        <v>946.157000</v>
+        <v>946.15700000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.944000</v>
+        <v>-103.944</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>10134.016296</v>
       </c>
       <c r="V17" s="1">
-        <v>2.815005</v>
+        <v>2.8150050000000002</v>
       </c>
       <c r="W17" s="1">
-        <v>952.663000</v>
+        <v>952.66300000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.736100</v>
+        <v>-88.736099999999993</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>10144.544345</v>
       </c>
       <c r="AA17" s="1">
-        <v>2.817929</v>
+        <v>2.8179289999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>959.668000</v>
+        <v>959.66800000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.963000</v>
+        <v>-76.962999999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>10154.929084</v>
+        <v>10154.929083999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>2.820814</v>
+        <v>2.8208139999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>964.177000</v>
+        <v>964.17700000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.603000</v>
+        <v>-74.602999999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>10165.130798</v>
       </c>
       <c r="AK17" s="1">
-        <v>2.823647</v>
+        <v>2.8236469999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>971.351000</v>
+        <v>971.351</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.260300</v>
+        <v>-79.260300000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>10175.944577</v>
@@ -4456,210 +4872,210 @@
         <v>2.826651</v>
       </c>
       <c r="AQ17" s="1">
-        <v>979.373000</v>
+        <v>979.37300000000005</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.831800</v>
+        <v>-90.831800000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>10187.398193</v>
+        <v>10187.398193000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>2.829833</v>
+        <v>2.8298329999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>989.171000</v>
+        <v>989.17100000000005</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.483000</v>
+        <v>-108.483</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>10199.178673</v>
       </c>
       <c r="AZ17" s="1">
-        <v>2.833105</v>
+        <v>2.8331050000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>997.357000</v>
+        <v>997.35699999999997</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.066000</v>
+        <v>-124.066</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>10210.170516</v>
       </c>
       <c r="BE17" s="1">
-        <v>2.836158</v>
+        <v>2.8361580000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1035.490000</v>
+        <v>1035.49</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.968000</v>
+        <v>-195.96799999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>10220.770020</v>
+        <v>10220.77002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>2.839103</v>
+        <v>2.8391030000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1101.190000</v>
+        <v>1101.19</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.213000</v>
+        <v>-313.21300000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>10231.897306</v>
+        <v>10231.897306000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>2.842194</v>
+        <v>2.8421940000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1208.280000</v>
+        <v>1208.28</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-499.094000</v>
+        <v>-499.09399999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>10242.437752</v>
       </c>
       <c r="BT17" s="1">
-        <v>2.845122</v>
+        <v>2.8451219999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1329.730000</v>
+        <v>1329.73</v>
       </c>
       <c r="BV17" s="1">
-        <v>-704.047000</v>
+        <v>-704.04700000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>10253.201434</v>
+        <v>10253.201434000001</v>
       </c>
       <c r="BY17" s="1">
         <v>2.848112</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1465.820000</v>
+        <v>1465.82</v>
       </c>
       <c r="CA17" s="1">
-        <v>-922.704000</v>
+        <v>-922.70399999999995</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>10265.812714</v>
       </c>
       <c r="CD17" s="1">
-        <v>2.851615</v>
+        <v>2.8516149999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>1826.860000</v>
+        <v>1826.86</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1442.800000</v>
+        <v>-1442.8</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>10093.287805</v>
       </c>
       <c r="B18" s="1">
-        <v>2.803691</v>
+        <v>2.8036910000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>898.662000</v>
+        <v>898.66200000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-201.860000</v>
+        <v>-201.86</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>10103.415090</v>
+        <v>10103.41509</v>
       </c>
       <c r="G18" s="1">
-        <v>2.806504</v>
+        <v>2.8065039999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>916.471000</v>
+        <v>916.471</v>
       </c>
       <c r="I18" s="1">
-        <v>-171.176000</v>
+        <v>-171.17599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>10113.633516</v>
       </c>
       <c r="L18" s="1">
-        <v>2.809343</v>
+        <v>2.8093430000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>939.352000</v>
+        <v>939.35199999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.445000</v>
+        <v>-120.44499999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>10123.891466</v>
+        <v>10123.891465999999</v>
       </c>
       <c r="Q18" s="1">
         <v>2.812192</v>
       </c>
       <c r="R18" s="1">
-        <v>946.176000</v>
+        <v>946.17600000000004</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.909000</v>
+        <v>-103.90900000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>10134.706726</v>
       </c>
       <c r="V18" s="1">
-        <v>2.815196</v>
+        <v>2.8151959999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>952.574000</v>
+        <v>952.57399999999996</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.671300</v>
+        <v>-88.671300000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>10144.890083</v>
@@ -4668,28 +5084,28 @@
         <v>2.818025</v>
       </c>
       <c r="AB18" s="1">
-        <v>959.588000</v>
+        <v>959.58799999999997</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.913600</v>
+        <v>-76.913600000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>10155.272811</v>
+        <v>10155.272811000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>2.820909</v>
+        <v>2.8209089999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>964.183000</v>
+        <v>964.18299999999999</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.513300</v>
+        <v>-74.513300000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>10165.477502</v>
@@ -4698,255 +5114,255 @@
         <v>2.823744</v>
       </c>
       <c r="AL18" s="1">
-        <v>971.347000</v>
+        <v>971.34699999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.274000</v>
+        <v>-79.274000000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>10176.302719</v>
+        <v>10176.302718999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>2.826751</v>
+        <v>2.8267509999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>979.373000</v>
+        <v>979.37300000000005</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.823700</v>
+        <v>-90.823700000000002</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>10188.060881</v>
+        <v>10188.060880999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>2.830017</v>
+        <v>2.8300169999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>989.166000</v>
+        <v>989.16600000000005</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.463000</v>
+        <v>-108.46299999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>10199.600806</v>
       </c>
       <c r="AZ18" s="1">
-        <v>2.833222</v>
+        <v>2.8332220000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>997.348000</v>
+        <v>997.34799999999996</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.058000</v>
+        <v>-124.05800000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>10210.625875</v>
       </c>
       <c r="BE18" s="1">
-        <v>2.836285</v>
+        <v>2.8362850000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1035.510000</v>
+        <v>1035.51</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.936000</v>
+        <v>-195.93600000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>10221.136069</v>
       </c>
       <c r="BJ18" s="1">
-        <v>2.839204</v>
+        <v>2.8392040000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1101.180000</v>
+        <v>1101.18</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.209000</v>
+        <v>-313.209</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>10232.294597</v>
       </c>
       <c r="BO18" s="1">
-        <v>2.842304</v>
+        <v>2.8423039999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1208.300000</v>
+        <v>1208.3</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-499.089000</v>
+        <v>-499.089</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>10242.866297</v>
       </c>
       <c r="BT18" s="1">
-        <v>2.845241</v>
+        <v>2.8452410000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1329.580000</v>
+        <v>1329.58</v>
       </c>
       <c r="BV18" s="1">
-        <v>-704.133000</v>
+        <v>-704.13300000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>10253.616089</v>
+        <v>10253.616088999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>2.848227</v>
+        <v>2.8482270000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1465.780000</v>
+        <v>1465.78</v>
       </c>
       <c r="CA18" s="1">
-        <v>-922.709000</v>
+        <v>-922.70899999999995</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>10266.332520</v>
+        <v>10266.33252</v>
       </c>
       <c r="CD18" s="1">
-        <v>2.851759</v>
+        <v>2.8517589999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1825.400000</v>
+        <v>1825.4</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1442.310000</v>
+        <v>-1442.31</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>10093.628028</v>
+        <v>10093.628027999999</v>
       </c>
       <c r="B19" s="1">
-        <v>2.803786</v>
+        <v>2.8037860000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>898.712000</v>
+        <v>898.71199999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-201.776000</v>
+        <v>-201.77600000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>10103.758815</v>
+        <v>10103.758814999999</v>
       </c>
       <c r="G19" s="1">
-        <v>2.806600</v>
+        <v>2.8066</v>
       </c>
       <c r="H19" s="1">
-        <v>916.109000</v>
+        <v>916.10900000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-170.169000</v>
+        <v>-170.16900000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>10114.328562</v>
+        <v>10114.328562000001</v>
       </c>
       <c r="L19" s="1">
         <v>2.809536</v>
       </c>
       <c r="M19" s="1">
-        <v>939.530000</v>
+        <v>939.53</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.429000</v>
+        <v>-120.429</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>10124.917193</v>
+        <v>10124.917192999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>2.812477</v>
+        <v>2.8124769999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>946.196000</v>
+        <v>946.19600000000003</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.932000</v>
+        <v>-103.932</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>10135.043975</v>
+        <v>10135.043975000001</v>
       </c>
       <c r="V19" s="1">
-        <v>2.815290</v>
+        <v>2.8152900000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>952.534000</v>
+        <v>952.53399999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.638300</v>
+        <v>-88.638300000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>10145.236299</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.818121</v>
+        <v>2.8181210000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>959.553000</v>
+        <v>959.553</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.899300</v>
+        <v>-76.899299999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>10155.615050</v>
+        <v>10155.61505</v>
       </c>
       <c r="AF19" s="1">
-        <v>2.821004</v>
+        <v>2.8210039999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>964.162000</v>
+        <v>964.16200000000003</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.556300</v>
+        <v>-74.556299999999993</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>10166.128255</v>
@@ -4955,88 +5371,88 @@
         <v>2.823925</v>
       </c>
       <c r="AL19" s="1">
-        <v>971.316000</v>
+        <v>971.31600000000003</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.254000</v>
+        <v>-79.254000000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>10176.968318</v>
+        <v>10176.968317999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>2.826936</v>
+        <v>2.8269359999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>979.389000</v>
+        <v>979.38900000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.840000</v>
+        <v>-90.84</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>10188.524607</v>
+        <v>10188.524606999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>2.830146</v>
+        <v>2.8301460000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>989.163000</v>
+        <v>989.16300000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.457000</v>
+        <v>-108.45699999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>10199.973792</v>
+        <v>10199.973792000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>2.833326</v>
       </c>
       <c r="BA19" s="1">
-        <v>997.354000</v>
+        <v>997.35400000000004</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.047000</v>
+        <v>-124.047</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>10210.989905</v>
       </c>
       <c r="BE19" s="1">
-        <v>2.836386</v>
+        <v>2.8363860000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1035.510000</v>
+        <v>1035.51</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.966000</v>
+        <v>-195.96600000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>10221.509061</v>
+        <v>10221.509061000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>2.839308</v>
+        <v>2.8393079999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1101.200000</v>
+        <v>1101.2</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.205000</v>
+        <v>-313.20499999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>10232.719636</v>
@@ -5045,61 +5461,61 @@
         <v>2.842422</v>
       </c>
       <c r="BP19" s="1">
-        <v>1208.280000</v>
+        <v>1208.28</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-499.081000</v>
+        <v>-499.08100000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>10243.282440</v>
+        <v>10243.282440000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>2.845356</v>
+        <v>2.8453560000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>1329.670000</v>
+        <v>1329.67</v>
       </c>
       <c r="BV19" s="1">
-        <v>-704.248000</v>
+        <v>-704.24800000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>10254.070937</v>
       </c>
       <c r="BY19" s="1">
-        <v>2.848353</v>
+        <v>2.8483529999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1465.830000</v>
+        <v>1465.83</v>
       </c>
       <c r="CA19" s="1">
-        <v>-922.628000</v>
+        <v>-922.62800000000004</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>10266.850841</v>
+        <v>10266.850840999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>2.851903</v>
+        <v>2.8519030000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1826.040000</v>
+        <v>1826.04</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1442.410000</v>
+        <v>-1442.41</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>10094.312012</v>
       </c>
@@ -5107,133 +5523,133 @@
         <v>2.803976</v>
       </c>
       <c r="C20" s="1">
-        <v>898.629000</v>
+        <v>898.62900000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-201.720000</v>
+        <v>-201.72</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>10104.452224</v>
+        <v>10104.452224000001</v>
       </c>
       <c r="G20" s="1">
-        <v>2.806792</v>
+        <v>2.8067920000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>916.311000</v>
+        <v>916.31100000000004</v>
       </c>
       <c r="I20" s="1">
-        <v>-170.359000</v>
+        <v>-170.35900000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>10114.678241</v>
       </c>
       <c r="L20" s="1">
-        <v>2.809633</v>
+        <v>2.8096329999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>939.524000</v>
+        <v>939.524</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.497000</v>
+        <v>-120.497</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>10125.265847</v>
+        <v>10125.265847000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>2.812574</v>
+        <v>2.8125740000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>946.217000</v>
+        <v>946.21699999999998</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.992000</v>
+        <v>-103.992</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>10135.391173</v>
       </c>
       <c r="V20" s="1">
-        <v>2.815386</v>
+        <v>2.8153860000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>952.682000</v>
+        <v>952.68200000000002</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.707100</v>
+        <v>-88.707099999999997</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>10145.887047</v>
       </c>
       <c r="AA20" s="1">
-        <v>2.818302</v>
+        <v>2.8183020000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>959.533000</v>
+        <v>959.53300000000002</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.948700</v>
+        <v>-76.948700000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>10156.255883</v>
       </c>
       <c r="AF20" s="1">
-        <v>2.821182</v>
+        <v>2.8211819999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>964.174000</v>
+        <v>964.17399999999998</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.537900</v>
+        <v>-74.537899999999993</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>10166.524556</v>
       </c>
       <c r="AK20" s="1">
-        <v>2.824035</v>
+        <v>2.8240349999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>971.324000</v>
+        <v>971.32399999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.274100</v>
+        <v>-79.274100000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>10177.410254</v>
       </c>
       <c r="AP20" s="1">
-        <v>2.827058</v>
+        <v>2.8270580000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>979.381000</v>
+        <v>979.38099999999997</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.818500</v>
+        <v>-90.8185</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>10188.889689</v>
@@ -5242,121 +5658,121 @@
         <v>2.830247</v>
       </c>
       <c r="AV20" s="1">
-        <v>989.169000</v>
+        <v>989.16899999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.457000</v>
+        <v>-108.45699999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>10200.356672</v>
       </c>
       <c r="AZ20" s="1">
-        <v>2.833432</v>
+        <v>2.8334320000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>997.348000</v>
+        <v>997.34799999999996</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.066000</v>
+        <v>-124.066</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>10211.347552</v>
+        <v>10211.347551999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>2.836485</v>
+        <v>2.8364850000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1035.500000</v>
+        <v>1035.5</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.938000</v>
+        <v>-195.93799999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>10221.927715</v>
       </c>
       <c r="BJ20" s="1">
-        <v>2.839424</v>
+        <v>2.8394240000000002</v>
       </c>
       <c r="BK20" s="1">
-        <v>1101.160000</v>
+        <v>1101.1600000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.216000</v>
+        <v>-313.21600000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>10233.115445</v>
+        <v>10233.115444999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>2.842532</v>
+        <v>2.8425319999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1208.260000</v>
+        <v>1208.26</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-499.092000</v>
+        <v>-499.09199999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>10243.695607</v>
       </c>
       <c r="BT20" s="1">
-        <v>2.845471</v>
+        <v>2.8454709999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1329.580000</v>
+        <v>1329.58</v>
       </c>
       <c r="BV20" s="1">
-        <v>-704.204000</v>
+        <v>-704.20399999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>10254.520297</v>
+        <v>10254.520296999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>2.848478</v>
+        <v>2.8484780000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1465.790000</v>
+        <v>1465.79</v>
       </c>
       <c r="CA20" s="1">
-        <v>-922.713000</v>
+        <v>-922.71299999999997</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>10267.403113</v>
       </c>
       <c r="CD20" s="1">
-        <v>2.852056</v>
+        <v>2.8520560000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1826.760000</v>
+        <v>1826.76</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1442.450000</v>
+        <v>-1442.45</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>10094.657259</v>
       </c>
@@ -5364,495 +5780,495 @@
         <v>2.804071</v>
       </c>
       <c r="C21" s="1">
-        <v>898.705000</v>
+        <v>898.70500000000004</v>
       </c>
       <c r="D21" s="1">
-        <v>-201.778000</v>
+        <v>-201.77799999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>10104.794959</v>
+        <v>10104.794959000001</v>
       </c>
       <c r="G21" s="1">
-        <v>2.806887</v>
+        <v>2.8068870000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>916.078000</v>
+        <v>916.07799999999997</v>
       </c>
       <c r="I21" s="1">
-        <v>-170.462000</v>
+        <v>-170.46199999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>10115.023458</v>
       </c>
       <c r="L21" s="1">
-        <v>2.809729</v>
+        <v>2.8097289999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>939.562000</v>
+        <v>939.56200000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.430000</v>
+        <v>-120.43</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>10125.909682</v>
       </c>
       <c r="Q21" s="1">
-        <v>2.812753</v>
+        <v>2.8127529999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>946.131000</v>
+        <v>946.13099999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.936000</v>
+        <v>-103.93600000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>10136.045893</v>
       </c>
       <c r="V21" s="1">
-        <v>2.815568</v>
+        <v>2.8155679999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>952.579000</v>
+        <v>952.57899999999995</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.671200</v>
+        <v>-88.671199999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>10146.284342</v>
+        <v>10146.284342000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>2.818412</v>
+        <v>2.8184119999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>959.587000</v>
+        <v>959.58699999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.990400</v>
+        <v>-76.990399999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>10156.645242</v>
+        <v>10156.645242000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>2.821290</v>
+        <v>2.8212899999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>964.167000</v>
+        <v>964.16700000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.539800</v>
+        <v>-74.5398</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>10166.876258</v>
       </c>
       <c r="AK21" s="1">
-        <v>2.824132</v>
+        <v>2.8241320000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>971.345000</v>
+        <v>971.34500000000003</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.261800</v>
+        <v>-79.261799999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>10177.834366</v>
+        <v>10177.834365999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>2.827176</v>
+        <v>2.8271760000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>979.381000</v>
+        <v>979.38099999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.828900</v>
+        <v>-90.828900000000004</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>10189.252238</v>
+        <v>10189.252237999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>2.830348</v>
+        <v>2.8303479999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>989.172000</v>
+        <v>989.17200000000003</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.446000</v>
+        <v>-108.446</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>10200.776821</v>
+        <v>10200.776820999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>2.833549</v>
+        <v>2.8335490000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>997.344000</v>
+        <v>997.34400000000005</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.048000</v>
+        <v>-124.048</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>10211.773585</v>
+        <v>10211.773585000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>2.836604</v>
+        <v>2.8366039999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1035.490000</v>
+        <v>1035.49</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.959000</v>
+        <v>-195.959</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>10222.261031</v>
       </c>
       <c r="BJ21" s="1">
-        <v>2.839517</v>
+        <v>2.8395169999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1101.180000</v>
+        <v>1101.18</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.191000</v>
+        <v>-313.19099999999997</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>10233.538543</v>
+        <v>10233.538543000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>2.842650</v>
+        <v>2.8426499999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1208.260000</v>
+        <v>1208.26</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-499.111000</v>
+        <v>-499.11099999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>10244.112246</v>
+        <v>10244.112246000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>2.845587</v>
+        <v>2.8455870000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1329.440000</v>
+        <v>1329.44</v>
       </c>
       <c r="BV21" s="1">
-        <v>-704.224000</v>
+        <v>-704.22400000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>10254.975625</v>
+        <v>10254.975624999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>2.848604</v>
+        <v>2.8486039999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1465.760000</v>
+        <v>1465.76</v>
       </c>
       <c r="CA21" s="1">
-        <v>-922.639000</v>
+        <v>-922.63900000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>10268.008503</v>
+        <v>10268.008502999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>2.852225</v>
+        <v>2.8522249999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>1825.290000</v>
+        <v>1825.29</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1442.510000</v>
+        <v>-1442.51</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>10094.997979</v>
       </c>
       <c r="B22" s="1">
-        <v>2.804166</v>
+        <v>2.8041659999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>898.576000</v>
+        <v>898.57600000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>-201.715000</v>
+        <v>-201.715</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>10105.138191</v>
       </c>
       <c r="G22" s="1">
-        <v>2.806983</v>
+        <v>2.8069829999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>916.752000</v>
+        <v>916.75199999999995</v>
       </c>
       <c r="I22" s="1">
-        <v>-170.390000</v>
+        <v>-170.39</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>10115.673712</v>
       </c>
       <c r="L22" s="1">
-        <v>2.809909</v>
+        <v>2.8099090000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>939.397000</v>
+        <v>939.39700000000005</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.344000</v>
+        <v>-120.34399999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>10126.314881</v>
       </c>
       <c r="Q22" s="1">
-        <v>2.812865</v>
+        <v>2.8128649999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>946.152000</v>
+        <v>946.15200000000004</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.922000</v>
+        <v>-103.922</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>10136.422884</v>
       </c>
       <c r="V22" s="1">
-        <v>2.815673</v>
+        <v>2.8156729999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>952.610000</v>
+        <v>952.61</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.661200</v>
+        <v>-88.661199999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>10146.632503</v>
+        <v>10146.632503000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>2.818509</v>
+        <v>2.8185090000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>959.588000</v>
+        <v>959.58799999999997</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.011700</v>
+        <v>-77.011700000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>10156.988005</v>
+        <v>10156.988004999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>2.821386</v>
+        <v>2.8213859999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>964.215000</v>
+        <v>964.21500000000003</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.520200</v>
+        <v>-74.520200000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>10167.222923</v>
+        <v>10167.222922999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>2.824229</v>
+        <v>2.8242289999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>971.341000</v>
+        <v>971.34100000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.267200</v>
+        <v>-79.267200000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>10178.130942</v>
       </c>
       <c r="AP22" s="1">
-        <v>2.827259</v>
+        <v>2.8272590000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>979.380000</v>
+        <v>979.38</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.819600</v>
+        <v>-90.819599999999994</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>10189.671358</v>
       </c>
       <c r="AU22" s="1">
-        <v>2.830464</v>
+        <v>2.8304640000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>989.169000</v>
+        <v>989.16899999999998</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.466000</v>
+        <v>-108.46599999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>10201.074879</v>
       </c>
       <c r="AZ22" s="1">
-        <v>2.833632</v>
+        <v>2.8336320000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>997.340000</v>
+        <v>997.34</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.052000</v>
+        <v>-124.05200000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>10212.070192</v>
+        <v>10212.070191999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>2.836686</v>
+        <v>2.8366859999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1035.500000</v>
+        <v>1035.5</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.951000</v>
+        <v>-195.95099999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>10222.660803</v>
+        <v>10222.660803000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>2.839628</v>
+        <v>2.8396279999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1101.200000</v>
+        <v>1101.2</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.228000</v>
+        <v>-313.22800000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>10233.933876</v>
+        <v>10233.933875999999</v>
       </c>
       <c r="BO22" s="1">
         <v>2.842759</v>
       </c>
       <c r="BP22" s="1">
-        <v>1208.280000</v>
+        <v>1208.28</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-499.128000</v>
+        <v>-499.12799999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>10244.519989</v>
       </c>
       <c r="BT22" s="1">
-        <v>2.845700</v>
+        <v>2.8456999999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1329.330000</v>
+        <v>1329.33</v>
       </c>
       <c r="BV22" s="1">
-        <v>-704.222000</v>
+        <v>-704.22199999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>10255.424534</v>
       </c>
       <c r="BY22" s="1">
-        <v>2.848729</v>
+        <v>2.8487290000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1465.780000</v>
+        <v>1465.78</v>
       </c>
       <c r="CA22" s="1">
-        <v>-922.724000</v>
+        <v>-922.72400000000005</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>10268.448455</v>
@@ -5861,120 +6277,120 @@
         <v>2.852347</v>
       </c>
       <c r="CE22" s="1">
-        <v>1825.240000</v>
+        <v>1825.24</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1443.970000</v>
+        <v>-1443.97</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>10095.638844</v>
+        <v>10095.638843999999</v>
       </c>
       <c r="B23" s="1">
-        <v>2.804344</v>
+        <v>2.8043439999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>898.471000</v>
+        <v>898.471</v>
       </c>
       <c r="D23" s="1">
-        <v>-201.903000</v>
+        <v>-201.90299999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>10105.802860</v>
+        <v>10105.80286</v>
       </c>
       <c r="G23" s="1">
-        <v>2.807167</v>
+        <v>2.8071670000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>916.677000</v>
+        <v>916.67700000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>-170.560000</v>
+        <v>-170.56</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>10116.060591</v>
+        <v>10116.060590999999</v>
       </c>
       <c r="L23" s="1">
-        <v>2.810017</v>
+        <v>2.8100170000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>939.704000</v>
+        <v>939.70399999999995</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.477000</v>
+        <v>-120.477</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>10126.659601</v>
+        <v>10126.659600999999</v>
       </c>
       <c r="Q23" s="1">
         <v>2.812961</v>
       </c>
       <c r="R23" s="1">
-        <v>946.169000</v>
+        <v>946.16899999999998</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.899000</v>
+        <v>-103.899</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>10136.764721</v>
       </c>
       <c r="V23" s="1">
-        <v>2.815768</v>
+        <v>2.8157679999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>952.601000</v>
+        <v>952.601</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.721100</v>
+        <v>-88.721100000000007</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>10146.981719</v>
+        <v>10146.981718999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>2.818606</v>
+        <v>2.8186059999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>959.551000</v>
+        <v>959.55100000000004</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.942400</v>
+        <v>-76.942400000000006</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>10157.330216</v>
       </c>
       <c r="AF23" s="1">
-        <v>2.821481</v>
+        <v>2.8214809999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>964.209000</v>
+        <v>964.20899999999995</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.510300</v>
+        <v>-74.510300000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>10167.626667</v>
@@ -5983,437 +6399,437 @@
         <v>2.824341</v>
       </c>
       <c r="AL23" s="1">
-        <v>971.319000</v>
+        <v>971.31899999999996</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.255100</v>
+        <v>-79.255099999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>10178.877916</v>
+        <v>10178.877915999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>2.827466</v>
+        <v>2.8274659999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>979.377000</v>
+        <v>979.37699999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.825200</v>
+        <v>-90.825199999999995</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>10189.984333</v>
       </c>
       <c r="AU23" s="1">
-        <v>2.830551</v>
+        <v>2.8305509999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>989.164000</v>
+        <v>989.16399999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.470000</v>
+        <v>-108.47</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>10201.431006</v>
+        <v>10201.431006000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>2.833731</v>
+        <v>2.8337310000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>997.327000</v>
+        <v>997.327</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.059000</v>
+        <v>-124.059</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>10212.428304</v>
+        <v>10212.428303999999</v>
       </c>
       <c r="BE23" s="1">
         <v>2.836786</v>
       </c>
       <c r="BF23" s="1">
-        <v>1035.490000</v>
+        <v>1035.49</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.926000</v>
+        <v>-195.92599999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>10223.034257</v>
+        <v>10223.034256999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>2.839732</v>
+        <v>2.8397320000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1101.190000</v>
+        <v>1101.19</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.223000</v>
+        <v>-313.22300000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>10234.357923</v>
       </c>
       <c r="BO23" s="1">
-        <v>2.842877</v>
+        <v>2.8428770000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1208.270000</v>
+        <v>1208.27</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-499.126000</v>
+        <v>-499.12599999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>10244.940597</v>
+        <v>10244.940597000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>2.845817</v>
+        <v>2.8458169999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1329.270000</v>
+        <v>1329.27</v>
       </c>
       <c r="BV23" s="1">
-        <v>-704.195000</v>
+        <v>-704.19500000000005</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>10255.881318</v>
       </c>
       <c r="BY23" s="1">
-        <v>2.848856</v>
+        <v>2.8488560000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1465.750000</v>
+        <v>1465.75</v>
       </c>
       <c r="CA23" s="1">
-        <v>-922.796000</v>
+        <v>-922.79600000000005</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>10268.969750</v>
+        <v>10268.96975</v>
       </c>
       <c r="CD23" s="1">
-        <v>2.852492</v>
+        <v>2.8524919999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>1826.770000</v>
+        <v>1826.77</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1443.590000</v>
+        <v>-1443.59</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>10096.020266</v>
       </c>
       <c r="B24" s="1">
-        <v>2.804450</v>
+        <v>2.8044500000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>898.728000</v>
+        <v>898.72799999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-201.775000</v>
+        <v>-201.77500000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>10106.207068</v>
       </c>
       <c r="G24" s="1">
-        <v>2.807280</v>
+        <v>2.80728</v>
       </c>
       <c r="H24" s="1">
-        <v>916.532000</v>
+        <v>916.53200000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-170.847000</v>
+        <v>-170.84700000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>10116.407296</v>
+        <v>10116.407295999999</v>
       </c>
       <c r="L24" s="1">
-        <v>2.810113</v>
+        <v>2.8101129999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>939.684000</v>
+        <v>939.68399999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.360000</v>
+        <v>-120.36</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>10127.006305</v>
+        <v>10127.006305000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>2.813057</v>
+        <v>2.8130570000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>946.172000</v>
+        <v>946.17200000000003</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.930000</v>
+        <v>-103.93</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>10137.108819</v>
+        <v>10137.108818999999</v>
       </c>
       <c r="V24" s="1">
-        <v>2.815864</v>
+        <v>2.8158639999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>952.581000</v>
+        <v>952.58100000000002</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.687900</v>
+        <v>-88.687899999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>10147.399318</v>
       </c>
       <c r="AA24" s="1">
-        <v>2.818722</v>
+        <v>2.8187220000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>959.520000</v>
+        <v>959.52</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.974500</v>
+        <v>-76.974500000000006</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>10157.742393</v>
       </c>
       <c r="AF24" s="1">
-        <v>2.821595</v>
+        <v>2.8215949999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>964.192000</v>
+        <v>964.19200000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.517100</v>
+        <v>-74.517099999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>10167.920300</v>
+        <v>10167.9203</v>
       </c>
       <c r="AK24" s="1">
-        <v>2.824422</v>
+        <v>2.8244220000000002</v>
       </c>
       <c r="AL24" s="1">
-        <v>971.322000</v>
+        <v>971.322</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.250000</v>
+        <v>-79.25</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>10179.237515</v>
+        <v>10179.237515000001</v>
       </c>
       <c r="AP24" s="1">
         <v>2.827566</v>
       </c>
       <c r="AQ24" s="1">
-        <v>979.367000</v>
+        <v>979.36699999999996</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.824000</v>
+        <v>-90.823999999999998</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>10190.349389</v>
+        <v>10190.349389000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>2.830653</v>
+        <v>2.8306529999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>989.166000</v>
+        <v>989.16600000000005</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.460000</v>
+        <v>-108.46</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>10201.789117</v>
       </c>
       <c r="AZ24" s="1">
-        <v>2.833830</v>
+        <v>2.8338299999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>997.344000</v>
+        <v>997.34400000000005</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.035000</v>
+        <v>-124.035</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>10212.793359</v>
+        <v>10212.793358999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>2.836887</v>
+        <v>2.8368869999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1035.490000</v>
+        <v>1035.49</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.948000</v>
+        <v>-195.94800000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>10223.785201</v>
+        <v>10223.785201000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>2.839940</v>
+        <v>2.8399399999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1101.180000</v>
+        <v>1101.18</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.210000</v>
+        <v>-313.20999999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>10234.753763</v>
+        <v>10234.753763000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>2.842987</v>
+        <v>2.8429869999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1208.280000</v>
+        <v>1208.28</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-499.108000</v>
+        <v>-499.108</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>10245.356708</v>
+        <v>10245.356707999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>2.845932</v>
+        <v>2.8459319999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1329.210000</v>
+        <v>1329.21</v>
       </c>
       <c r="BV24" s="1">
-        <v>-704.202000</v>
+        <v>-704.202</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>10256.328742</v>
       </c>
       <c r="BY24" s="1">
-        <v>2.848980</v>
+        <v>2.8489800000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1465.810000</v>
+        <v>1465.81</v>
       </c>
       <c r="CA24" s="1">
-        <v>-922.728000</v>
+        <v>-922.72799999999995</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>10269.781732</v>
+        <v>10269.781731999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>2.852717</v>
+        <v>2.8527170000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>1826.710000</v>
+        <v>1826.71</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1442.620000</v>
+        <v>-1442.62</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>10096.364954</v>
+        <v>10096.364954000001</v>
       </c>
       <c r="B25" s="1">
-        <v>2.804546</v>
+        <v>2.8045460000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>898.570000</v>
+        <v>898.57</v>
       </c>
       <c r="D25" s="1">
-        <v>-201.877000</v>
+        <v>-201.87700000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>10106.547857</v>
       </c>
       <c r="G25" s="1">
-        <v>2.807374</v>
+        <v>2.8073739999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>916.382000</v>
+        <v>916.38199999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-170.317000</v>
+        <v>-170.31700000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>10116.752047</v>
@@ -6422,255 +6838,255 @@
         <v>2.810209</v>
       </c>
       <c r="M25" s="1">
-        <v>939.616000</v>
+        <v>939.61599999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.494000</v>
+        <v>-120.494</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>10127.416496</v>
       </c>
       <c r="Q25" s="1">
-        <v>2.813171</v>
+        <v>2.8131710000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>946.193000</v>
+        <v>946.19299999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.918000</v>
+        <v>-103.91800000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>10137.519539</v>
+        <v>10137.519539000001</v>
       </c>
       <c r="V25" s="1">
-        <v>2.815978</v>
+        <v>2.8159779999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>952.568000</v>
+        <v>952.56799999999998</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.658100</v>
+        <v>-88.658100000000005</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>10147.687031</v>
+        <v>10147.687030999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>2.818802</v>
+        <v>2.8188019999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>959.546000</v>
+        <v>959.54600000000005</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.915500</v>
+        <v>-76.915499999999994</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>10158.040524</v>
       </c>
       <c r="AF25" s="1">
-        <v>2.821678</v>
+        <v>2.8216779999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>964.177000</v>
+        <v>964.17700000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.483300</v>
+        <v>-74.4833</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>10168.267002</v>
+        <v>10168.267002000001</v>
       </c>
       <c r="AK25" s="1">
         <v>2.824519</v>
       </c>
       <c r="AL25" s="1">
-        <v>971.321000</v>
+        <v>971.32100000000003</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.284200</v>
+        <v>-79.284199999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>10179.599131</v>
+        <v>10179.599131000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>2.827666</v>
+        <v>2.8276659999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>979.371000</v>
+        <v>979.37099999999998</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.819700</v>
+        <v>-90.819699999999997</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>10190.712956</v>
+        <v>10190.712955999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>2.830754</v>
+        <v>2.8307540000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>989.163000</v>
+        <v>989.16300000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.459000</v>
+        <v>-108.459</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>10202.507362</v>
       </c>
       <c r="AZ25" s="1">
-        <v>2.834030</v>
+        <v>2.8340299999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>997.344000</v>
+        <v>997.34400000000005</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.031000</v>
+        <v>-124.03100000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>10213.514046</v>
       </c>
       <c r="BE25" s="1">
-        <v>2.837087</v>
+        <v>2.8370869999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1035.500000</v>
+        <v>1035.5</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.958000</v>
+        <v>-195.958</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>10224.162192</v>
       </c>
       <c r="BJ25" s="1">
-        <v>2.840045</v>
+        <v>2.8400449999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1101.170000</v>
+        <v>1101.17</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.209000</v>
+        <v>-313.209</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>10235.175330</v>
+        <v>10235.17533</v>
       </c>
       <c r="BO25" s="1">
-        <v>2.843104</v>
+        <v>2.8431039999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1208.260000</v>
+        <v>1208.26</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-499.088000</v>
+        <v>-499.08800000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>10245.771861</v>
+        <v>10245.771860999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>2.846048</v>
+        <v>2.8460480000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1329.170000</v>
+        <v>1329.17</v>
       </c>
       <c r="BV25" s="1">
-        <v>-704.090000</v>
+        <v>-704.09</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>10257.096021</v>
+        <v>10257.096020999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>2.849193</v>
+        <v>2.8491930000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1465.810000</v>
+        <v>1465.81</v>
       </c>
       <c r="CA25" s="1">
-        <v>-922.716000</v>
+        <v>-922.71600000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>10270.002916</v>
+        <v>10270.002915999999</v>
       </c>
       <c r="CD25" s="1">
         <v>2.852779</v>
       </c>
       <c r="CE25" s="1">
-        <v>1825.180000</v>
+        <v>1825.18</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1442.890000</v>
+        <v>-1442.89</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>10096.706728</v>
+        <v>10096.706727999999</v>
       </c>
       <c r="B26" s="1">
-        <v>2.804641</v>
+        <v>2.8046410000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>898.619000</v>
+        <v>898.61900000000003</v>
       </c>
       <c r="D26" s="1">
-        <v>-201.927000</v>
+        <v>-201.92699999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>10106.951564</v>
+        <v>10106.951564000001</v>
       </c>
       <c r="G26" s="1">
-        <v>2.807487</v>
+        <v>2.8074870000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>916.549000</v>
+        <v>916.54899999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-170.564000</v>
+        <v>-170.56399999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>10117.164687</v>
@@ -6679,103 +7095,103 @@
         <v>2.810324</v>
       </c>
       <c r="M26" s="1">
-        <v>939.563000</v>
+        <v>939.56299999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.566000</v>
+        <v>-120.566</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>10127.710160</v>
+        <v>10127.710160000001</v>
       </c>
       <c r="Q26" s="1">
         <v>2.813253</v>
       </c>
       <c r="R26" s="1">
-        <v>946.183000</v>
+        <v>946.18299999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.943000</v>
+        <v>-103.943</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>10137.819090</v>
+        <v>10137.819090000001</v>
       </c>
       <c r="V26" s="1">
-        <v>2.816061</v>
+        <v>2.8160609999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>952.557000</v>
+        <v>952.55700000000002</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.712200</v>
+        <v>-88.712199999999996</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>10148.033205</v>
       </c>
       <c r="AA26" s="1">
-        <v>2.818898</v>
+        <v>2.8188979999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>959.609000</v>
+        <v>959.60900000000004</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.916100</v>
+        <v>-76.9161</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>10158.376775</v>
+        <v>10158.376775000001</v>
       </c>
       <c r="AF26" s="1">
         <v>2.821771</v>
       </c>
       <c r="AG26" s="1">
-        <v>964.213000</v>
+        <v>964.21299999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.539800</v>
+        <v>-74.5398</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>10168.617706</v>
+        <v>10168.617706000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>2.824616</v>
+        <v>2.8246159999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>971.337000</v>
+        <v>971.33699999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.266300</v>
+        <v>-79.266300000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>10180.317803</v>
       </c>
       <c r="AP26" s="1">
-        <v>2.827866</v>
+        <v>2.8278660000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>979.369000</v>
+        <v>979.36900000000003</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.822500</v>
+        <v>-90.822500000000005</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>10191.442572</v>
@@ -6784,120 +7200,121 @@
         <v>2.830956</v>
       </c>
       <c r="AV26" s="1">
-        <v>989.196000</v>
+        <v>989.19600000000003</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.446000</v>
+        <v>-108.446</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>10202.867917</v>
       </c>
       <c r="AZ26" s="1">
-        <v>2.834130</v>
+        <v>2.83413</v>
       </c>
       <c r="BA26" s="1">
-        <v>997.388000</v>
+        <v>997.38800000000003</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.069000</v>
+        <v>-124.069</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>10213.875629</v>
       </c>
       <c r="BE26" s="1">
-        <v>2.837188</v>
+        <v>2.8371879999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1035.490000</v>
+        <v>1035.49</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.944000</v>
+        <v>-195.94399999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>10224.535648</v>
+        <v>10224.535647999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>2.840149</v>
+        <v>2.8401489999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1101.200000</v>
+        <v>1101.2</v>
       </c>
       <c r="BL26" s="1">
-        <v>-313.214000</v>
+        <v>-313.214</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>10235.872502</v>
       </c>
       <c r="BO26" s="1">
-        <v>2.843298</v>
+        <v>2.8432979999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1208.250000</v>
+        <v>1208.25</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-499.087000</v>
+        <v>-499.08699999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>10246.505971</v>
       </c>
       <c r="BT26" s="1">
-        <v>2.846252</v>
+        <v>2.8462519999999998</v>
       </c>
       <c r="BU26" s="1">
-        <v>1329.170000</v>
+        <v>1329.17</v>
       </c>
       <c r="BV26" s="1">
-        <v>-703.985000</v>
+        <v>-703.98500000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>10257.233940</v>
+        <v>10257.23394</v>
       </c>
       <c r="BY26" s="1">
-        <v>2.849232</v>
+        <v>2.8492320000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1465.720000</v>
+        <v>1465.72</v>
       </c>
       <c r="CA26" s="1">
-        <v>-922.666000</v>
+        <v>-922.66600000000005</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>10270.522756</v>
       </c>
       <c r="CD26" s="1">
-        <v>2.852923</v>
+        <v>2.8529230000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1825.440000</v>
+        <v>1825.44</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1442.760000</v>
+        <v>-1442.76</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>